--- a/app/resource/xlsx/fee_proposal_template_1.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeezh\xero-asana-intergration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E66C6B-3EB3-41D0-85C6-C9B43788455D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED40D0-7F92-4B50-AF99-B0B5970B0CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -703,7 +703,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,62 +818,65 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1319,8 +1322,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X218"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A128" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:E138"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1339,16 +1342,16 @@
       <c r="A1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="e">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1356,10 +1359,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1412,15 +1415,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1472,14 +1475,14 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,14 +1497,14 @@
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
@@ -1513,14 +1516,14 @@
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
@@ -1532,14 +1535,14 @@
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
@@ -1551,14 +1554,14 @@
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1587,16 +1590,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1605,16 +1608,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1623,16 +1626,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1668,16 +1671,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1688,32 +1691,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1738,46 +1741,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1808,46 +1811,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -2005,7 +2008,7 @@
       <c r="I51" s="33"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26"/>
+      <c r="A52" s="65"/>
       <c r="C52" s="3"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -2013,18 +2016,19 @@
       <c r="I52" s="45"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
+      <c r="A54" s="12" t="str">
         <f t="shared" ref="A54:A66" si="0">IF(B54&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
+      <c r="A55" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2037,14 +2041,14 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
+      <c r="A56" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
+      <c r="A57" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2056,7 +2060,7 @@
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
+      <c r="A58" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2068,7 +2072,7 @@
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
+      <c r="A59" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2080,7 +2084,7 @@
       <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
+      <c r="A60" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2092,7 +2096,7 @@
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
+      <c r="A61" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2104,7 +2108,7 @@
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
+      <c r="A62" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2116,7 +2120,7 @@
       <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
+      <c r="A63" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2128,7 +2132,7 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
+      <c r="A64" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2140,7 +2144,7 @@
       <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
+      <c r="A65" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2152,7 +2156,7 @@
       <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
+      <c r="A66" s="12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2164,6 +2168,7 @@
       <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
       <c r="C67" s="3"/>
       <c r="E67" s="8"/>
       <c r="F67" s="16"/>
@@ -2172,7 +2177,7 @@
       <c r="I67" s="45"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="65"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -2182,7 +2187,7 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
+      <c r="A69" s="12" t="str">
         <f t="shared" ref="A69:A74" si="1">IF(B69&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2191,13 +2196,16 @@
       <c r="H69" s="16"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+    </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
       <c r="C71" s="3"/>
       <c r="I71" s="45"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
+      <c r="A72" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2205,7 +2213,7 @@
       <c r="I72" s="45"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
+      <c r="A73" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2213,7 +2221,7 @@
       <c r="I73" s="45"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
+      <c r="A74" s="12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2221,10 +2229,11 @@
       <c r="I74" s="45"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+      <c r="A76" s="65"/>
       <c r="C76" s="20"/>
       <c r="I76" s="1"/>
       <c r="J76" s="9"/>
@@ -2237,7 +2246,7 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
+      <c r="A77" s="12" t="str">
         <f t="shared" ref="A77:A82" si="2">IF(B77&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2250,7 +2259,7 @@
       <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+      <c r="A78" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2263,7 +2272,7 @@
       <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+      <c r="A79" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2276,7 +2285,7 @@
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
+      <c r="A80" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2289,7 +2298,7 @@
       <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+      <c r="A81" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2302,7 +2311,7 @@
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
+      <c r="A82" s="12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2315,6 +2324,7 @@
       <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="16"/>
@@ -2533,16 +2543,16 @@
     </row>
     <row r="101" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="34"/>
-      <c r="B101" s="46" t="s">
+      <c r="B101" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
       <c r="Q101" s="34"/>
     </row>
     <row r="102" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2720,16 +2730,16 @@
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="34"/>
-      <c r="B114" s="47" t="s">
+      <c r="B114" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
-      <c r="I114" s="47"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
       <c r="M114" s="7"/>
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
@@ -2796,16 +2806,16 @@
       <c r="P118"/>
     </row>
     <row r="119" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="46"/>
-      <c r="D119" s="46"/>
-      <c r="E119" s="46"/>
-      <c r="F119" s="46"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="46"/>
-      <c r="I119" s="46"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
+      <c r="I119" s="52"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
@@ -2814,14 +2824,14 @@
         <v>28</v>
       </c>
       <c r="C120" s="28"/>
-      <c r="D120" s="57" t="s">
+      <c r="D120" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="57"/>
-      <c r="F120" s="57" t="s">
+      <c r="E120" s="50"/>
+      <c r="F120" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="57"/>
+      <c r="G120" s="50"/>
       <c r="H120" s="9"/>
       <c r="Q120" s="5"/>
     </row>
@@ -2830,14 +2840,14 @@
         <v>24</v>
       </c>
       <c r="C121" s="28"/>
-      <c r="D121" s="57" t="s">
+      <c r="D121" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E121" s="57"/>
-      <c r="F121" s="58">
+      <c r="E121" s="50"/>
+      <c r="F121" s="51">
         <v>10000000</v>
       </c>
-      <c r="G121" s="58"/>
+      <c r="G121" s="51"/>
       <c r="H121" s="23"/>
       <c r="I121" s="7"/>
       <c r="M121" s="5"/>
@@ -2851,14 +2861,14 @@
         <v>26</v>
       </c>
       <c r="C122" s="28"/>
-      <c r="D122" s="57" t="s">
+      <c r="D122" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="57"/>
-      <c r="F122" s="58">
+      <c r="E122" s="50"/>
+      <c r="F122" s="51">
         <v>20000000</v>
       </c>
-      <c r="G122" s="58"/>
+      <c r="G122" s="51"/>
       <c r="H122" s="23"/>
       <c r="M122" s="9"/>
     </row>
@@ -3006,12 +3016,12 @@
       <c r="I134" s="48"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="59" t="s">
+      <c r="B135" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
-      <c r="E135" s="61"/>
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="55"/>
       <c r="F135" s="41" t="s">
         <v>96</v>
       </c>
@@ -3021,41 +3031,41 @@
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="62"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="64"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="57"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="58"/>
       <c r="F136" s="31"/>
       <c r="G136" s="31"/>
       <c r="H136" s="23"/>
       <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="62"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="64"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="57"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="58"/>
       <c r="F137" s="31"/>
       <c r="G137" s="31"/>
       <c r="H137" s="23"/>
       <c r="I137" s="7"/>
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="62"/>
-      <c r="C138" s="63"/>
-      <c r="D138" s="63"/>
-      <c r="E138" s="64"/>
+      <c r="B138" s="56"/>
+      <c r="C138" s="57"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="58"/>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
       <c r="H138" s="23"/>
       <c r="I138" s="7"/>
     </row>
     <row r="139" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="56" t="s">
+      <c r="C139" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D139" s="56"/>
-      <c r="E139" s="56"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="47"/>
       <c r="F139" s="42">
         <f>SUM(F136:F138)</f>
         <v>0</v>
@@ -3299,11 +3309,11 @@
       <c r="B168" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F168" s="55">
+      <c r="F168" s="59">
         <f ca="1">TODAY()</f>
-        <v>45224</v>
-      </c>
-      <c r="G168" s="55"/>
+        <v>45250</v>
+      </c>
+      <c r="G168" s="59"/>
     </row>
     <row r="169" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
@@ -3316,607 +3326,607 @@
       <c r="A170" s="8">
         <v>1</v>
       </c>
-      <c r="B170" s="54" t="s">
+      <c r="B170" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C170" s="54"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="54"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="54"/>
-      <c r="H170" s="54"/>
-      <c r="I170" s="54"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="46"/>
+      <c r="F170" s="46"/>
+      <c r="G170" s="46"/>
+      <c r="H170" s="46"/>
+      <c r="I170" s="46"/>
     </row>
     <row r="171" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>2</v>
       </c>
-      <c r="B171" s="54" t="s">
+      <c r="B171" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C171" s="54"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="54"/>
-      <c r="I171" s="54"/>
+      <c r="C171" s="46"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="46"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="46"/>
+      <c r="I171" s="46"/>
     </row>
     <row r="172" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>3</v>
       </c>
-      <c r="B172" s="54" t="s">
+      <c r="B172" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="54"/>
-      <c r="D172" s="54"/>
-      <c r="E172" s="54"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="54"/>
-      <c r="H172" s="54"/>
-      <c r="I172" s="54"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="46"/>
     </row>
     <row r="173" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>4</v>
       </c>
-      <c r="B173" s="54" t="s">
+      <c r="B173" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C173" s="54"/>
-      <c r="D173" s="54"/>
-      <c r="E173" s="54"/>
-      <c r="F173" s="54"/>
-      <c r="G173" s="54"/>
-      <c r="H173" s="54"/>
-      <c r="I173" s="54"/>
+      <c r="C173" s="46"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="46"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="46"/>
     </row>
     <row r="174" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>5</v>
       </c>
-      <c r="B174" s="54" t="s">
+      <c r="B174" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C174" s="54"/>
-      <c r="D174" s="54"/>
-      <c r="E174" s="54"/>
-      <c r="F174" s="54"/>
-      <c r="G174" s="54"/>
-      <c r="H174" s="54"/>
-      <c r="I174" s="54"/>
+      <c r="C174" s="46"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="46"/>
+      <c r="F174" s="46"/>
+      <c r="G174" s="46"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="46"/>
     </row>
     <row r="175" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
-      <c r="B175" s="54" t="s">
+      <c r="B175" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="54"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="54"/>
-      <c r="H175" s="54"/>
-      <c r="I175" s="54"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="46"/>
+      <c r="F175" s="46"/>
+      <c r="G175" s="46"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="46"/>
     </row>
     <row r="176" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
-      <c r="B176" s="54" t="s">
+      <c r="B176" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C176" s="54"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="54"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="54"/>
-      <c r="H176" s="54"/>
-      <c r="I176" s="54"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="46"/>
+      <c r="F176" s="46"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="46"/>
+      <c r="I176" s="46"/>
     </row>
     <row r="177" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
-      <c r="B177" s="54" t="s">
+      <c r="B177" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C177" s="54"/>
-      <c r="D177" s="54"/>
-      <c r="E177" s="54"/>
-      <c r="F177" s="54"/>
-      <c r="G177" s="54"/>
-      <c r="H177" s="54"/>
-      <c r="I177" s="54"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="46"/>
+      <c r="E177" s="46"/>
+      <c r="F177" s="46"/>
+      <c r="G177" s="46"/>
+      <c r="H177" s="46"/>
+      <c r="I177" s="46"/>
     </row>
     <row r="178" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>6</v>
       </c>
-      <c r="B178" s="54" t="s">
+      <c r="B178" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C178" s="54"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="54"/>
-      <c r="H178" s="54"/>
-      <c r="I178" s="54"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="46"/>
+      <c r="F178" s="46"/>
+      <c r="G178" s="46"/>
+      <c r="H178" s="46"/>
+      <c r="I178" s="46"/>
     </row>
     <row r="179" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
-      <c r="B179" s="54" t="s">
+      <c r="B179" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C179" s="54"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="54"/>
-      <c r="G179" s="54"/>
-      <c r="H179" s="54"/>
-      <c r="I179" s="54"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="46"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="46"/>
     </row>
     <row r="180" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
-      <c r="B180" s="54" t="s">
+      <c r="B180" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C180" s="54"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="54"/>
-      <c r="H180" s="54"/>
-      <c r="I180" s="54"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="46"/>
+      <c r="E180" s="46"/>
+      <c r="F180" s="46"/>
+      <c r="G180" s="46"/>
+      <c r="H180" s="46"/>
+      <c r="I180" s="46"/>
     </row>
     <row r="181" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>7</v>
       </c>
-      <c r="B181" s="54" t="s">
+      <c r="B181" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C181" s="54"/>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="54"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="54"/>
-      <c r="I181" s="54"/>
+      <c r="C181" s="46"/>
+      <c r="D181" s="46"/>
+      <c r="E181" s="46"/>
+      <c r="F181" s="46"/>
+      <c r="G181" s="46"/>
+      <c r="H181" s="46"/>
+      <c r="I181" s="46"/>
     </row>
     <row r="182" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>8</v>
       </c>
-      <c r="B182" s="54" t="s">
+      <c r="B182" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C182" s="54"/>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
-      <c r="I182" s="54"/>
+      <c r="C182" s="46"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="46"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="46"/>
+      <c r="H182" s="46"/>
+      <c r="I182" s="46"/>
     </row>
     <row r="183" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
-      <c r="B183" s="54" t="s">
+      <c r="B183" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C183" s="54"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
-      <c r="I183" s="54"/>
+      <c r="C183" s="46"/>
+      <c r="D183" s="46"/>
+      <c r="E183" s="46"/>
+      <c r="F183" s="46"/>
+      <c r="G183" s="46"/>
+      <c r="H183" s="46"/>
+      <c r="I183" s="46"/>
     </row>
     <row r="184" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
-      <c r="B184" s="54" t="s">
+      <c r="B184" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C184" s="54"/>
-      <c r="D184" s="54"/>
-      <c r="E184" s="54"/>
-      <c r="F184" s="54"/>
-      <c r="G184" s="54"/>
-      <c r="H184" s="54"/>
-      <c r="I184" s="54"/>
+      <c r="C184" s="46"/>
+      <c r="D184" s="46"/>
+      <c r="E184" s="46"/>
+      <c r="F184" s="46"/>
+      <c r="G184" s="46"/>
+      <c r="H184" s="46"/>
+      <c r="I184" s="46"/>
     </row>
     <row r="185" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
-      <c r="B185" s="54" t="s">
+      <c r="B185" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="54"/>
-      <c r="D185" s="54"/>
-      <c r="E185" s="54"/>
-      <c r="F185" s="54"/>
-      <c r="G185" s="54"/>
-      <c r="H185" s="54"/>
-      <c r="I185" s="54"/>
+      <c r="C185" s="46"/>
+      <c r="D185" s="46"/>
+      <c r="E185" s="46"/>
+      <c r="F185" s="46"/>
+      <c r="G185" s="46"/>
+      <c r="H185" s="46"/>
+      <c r="I185" s="46"/>
     </row>
     <row r="186" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
-      <c r="B186" s="54" t="s">
+      <c r="B186" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C186" s="54"/>
-      <c r="D186" s="54"/>
-      <c r="E186" s="54"/>
-      <c r="F186" s="54"/>
-      <c r="G186" s="54"/>
-      <c r="H186" s="54"/>
-      <c r="I186" s="54"/>
+      <c r="C186" s="46"/>
+      <c r="D186" s="46"/>
+      <c r="E186" s="46"/>
+      <c r="F186" s="46"/>
+      <c r="G186" s="46"/>
+      <c r="H186" s="46"/>
+      <c r="I186" s="46"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
-      <c r="B187" s="54" t="s">
+      <c r="B187" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C187" s="54"/>
-      <c r="D187" s="54"/>
-      <c r="E187" s="54"/>
-      <c r="F187" s="54"/>
-      <c r="G187" s="54"/>
-      <c r="H187" s="54"/>
-      <c r="I187" s="54"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="46"/>
+      <c r="E187" s="46"/>
+      <c r="F187" s="46"/>
+      <c r="G187" s="46"/>
+      <c r="H187" s="46"/>
+      <c r="I187" s="46"/>
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
-      <c r="B188" s="54" t="s">
+      <c r="B188" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C188" s="54"/>
-      <c r="D188" s="54"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="54"/>
-      <c r="H188" s="54"/>
-      <c r="I188" s="54"/>
+      <c r="C188" s="46"/>
+      <c r="D188" s="46"/>
+      <c r="E188" s="46"/>
+      <c r="F188" s="46"/>
+      <c r="G188" s="46"/>
+      <c r="H188" s="46"/>
+      <c r="I188" s="46"/>
     </row>
     <row r="189" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>9</v>
       </c>
-      <c r="B189" s="54" t="s">
+      <c r="B189" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C189" s="54"/>
-      <c r="D189" s="54"/>
-      <c r="E189" s="54"/>
-      <c r="F189" s="54"/>
-      <c r="G189" s="54"/>
-      <c r="H189" s="54"/>
-      <c r="I189" s="54"/>
+      <c r="C189" s="46"/>
+      <c r="D189" s="46"/>
+      <c r="E189" s="46"/>
+      <c r="F189" s="46"/>
+      <c r="G189" s="46"/>
+      <c r="H189" s="46"/>
+      <c r="I189" s="46"/>
     </row>
     <row r="190" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>10</v>
       </c>
-      <c r="B190" s="54" t="s">
+      <c r="B190" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C190" s="54"/>
-      <c r="D190" s="54"/>
-      <c r="E190" s="54"/>
-      <c r="F190" s="54"/>
-      <c r="G190" s="54"/>
-      <c r="H190" s="54"/>
-      <c r="I190" s="54"/>
+      <c r="C190" s="46"/>
+      <c r="D190" s="46"/>
+      <c r="E190" s="46"/>
+      <c r="F190" s="46"/>
+      <c r="G190" s="46"/>
+      <c r="H190" s="46"/>
+      <c r="I190" s="46"/>
     </row>
     <row r="191" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
-      <c r="B191" s="54" t="s">
+      <c r="B191" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C191" s="54"/>
-      <c r="D191" s="54"/>
-      <c r="E191" s="54"/>
-      <c r="F191" s="54"/>
-      <c r="G191" s="54"/>
-      <c r="H191" s="54"/>
-      <c r="I191" s="54"/>
+      <c r="C191" s="46"/>
+      <c r="D191" s="46"/>
+      <c r="E191" s="46"/>
+      <c r="F191" s="46"/>
+      <c r="G191" s="46"/>
+      <c r="H191" s="46"/>
+      <c r="I191" s="46"/>
     </row>
     <row r="192" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
-      <c r="B192" s="54" t="s">
+      <c r="B192" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C192" s="54"/>
-      <c r="D192" s="54"/>
-      <c r="E192" s="54"/>
-      <c r="F192" s="54"/>
-      <c r="G192" s="54"/>
-      <c r="H192" s="54"/>
-      <c r="I192" s="54"/>
+      <c r="C192" s="46"/>
+      <c r="D192" s="46"/>
+      <c r="E192" s="46"/>
+      <c r="F192" s="46"/>
+      <c r="G192" s="46"/>
+      <c r="H192" s="46"/>
+      <c r="I192" s="46"/>
     </row>
     <row r="193" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
-      <c r="B193" s="54" t="s">
+      <c r="B193" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="54"/>
-      <c r="D193" s="54"/>
-      <c r="E193" s="54"/>
-      <c r="F193" s="54"/>
-      <c r="G193" s="54"/>
-      <c r="H193" s="54"/>
-      <c r="I193" s="54"/>
+      <c r="C193" s="46"/>
+      <c r="D193" s="46"/>
+      <c r="E193" s="46"/>
+      <c r="F193" s="46"/>
+      <c r="G193" s="46"/>
+      <c r="H193" s="46"/>
+      <c r="I193" s="46"/>
     </row>
     <row r="194" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
-      <c r="B194" s="54" t="s">
+      <c r="B194" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C194" s="54"/>
-      <c r="D194" s="54"/>
-      <c r="E194" s="54"/>
-      <c r="F194" s="54"/>
-      <c r="G194" s="54"/>
-      <c r="H194" s="54"/>
-      <c r="I194" s="54"/>
+      <c r="C194" s="46"/>
+      <c r="D194" s="46"/>
+      <c r="E194" s="46"/>
+      <c r="F194" s="46"/>
+      <c r="G194" s="46"/>
+      <c r="H194" s="46"/>
+      <c r="I194" s="46"/>
     </row>
     <row r="195" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>11</v>
       </c>
-      <c r="B195" s="54" t="s">
+      <c r="B195" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C195" s="54"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="54"/>
-      <c r="H195" s="54"/>
-      <c r="I195" s="54"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="46"/>
+      <c r="E195" s="46"/>
+      <c r="F195" s="46"/>
+      <c r="G195" s="46"/>
+      <c r="H195" s="46"/>
+      <c r="I195" s="46"/>
     </row>
     <row r="196" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
-      <c r="B196" s="54" t="s">
+      <c r="B196" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C196" s="54"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="54"/>
-      <c r="G196" s="54"/>
-      <c r="H196" s="54"/>
-      <c r="I196" s="54"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="46"/>
+      <c r="E196" s="46"/>
+      <c r="F196" s="46"/>
+      <c r="G196" s="46"/>
+      <c r="H196" s="46"/>
+      <c r="I196" s="46"/>
     </row>
     <row r="197" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
-      <c r="B197" s="54" t="s">
+      <c r="B197" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C197" s="54"/>
-      <c r="D197" s="54"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="54"/>
-      <c r="G197" s="54"/>
-      <c r="H197" s="54"/>
-      <c r="I197" s="54"/>
+      <c r="C197" s="46"/>
+      <c r="D197" s="46"/>
+      <c r="E197" s="46"/>
+      <c r="F197" s="46"/>
+      <c r="G197" s="46"/>
+      <c r="H197" s="46"/>
+      <c r="I197" s="46"/>
     </row>
     <row r="198" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>12</v>
       </c>
-      <c r="B198" s="54" t="s">
+      <c r="B198" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C198" s="54"/>
-      <c r="D198" s="54"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="54"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="54"/>
-      <c r="I198" s="54"/>
+      <c r="C198" s="46"/>
+      <c r="D198" s="46"/>
+      <c r="E198" s="46"/>
+      <c r="F198" s="46"/>
+      <c r="G198" s="46"/>
+      <c r="H198" s="46"/>
+      <c r="I198" s="46"/>
     </row>
     <row r="199" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
-      <c r="B199" s="54" t="s">
+      <c r="B199" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C199" s="54"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="54"/>
-      <c r="I199" s="54"/>
+      <c r="C199" s="46"/>
+      <c r="D199" s="46"/>
+      <c r="E199" s="46"/>
+      <c r="F199" s="46"/>
+      <c r="G199" s="46"/>
+      <c r="H199" s="46"/>
+      <c r="I199" s="46"/>
     </row>
     <row r="200" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
-      <c r="B200" s="54" t="s">
+      <c r="B200" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="46"/>
+      <c r="E200" s="46"/>
+      <c r="F200" s="46"/>
+      <c r="G200" s="46"/>
+      <c r="H200" s="46"/>
+      <c r="I200" s="46"/>
     </row>
     <row r="201" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
-      <c r="B201" s="54" t="s">
+      <c r="B201" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C201" s="54"/>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="54"/>
-      <c r="G201" s="54"/>
-      <c r="H201" s="54"/>
-      <c r="I201" s="54"/>
+      <c r="C201" s="46"/>
+      <c r="D201" s="46"/>
+      <c r="E201" s="46"/>
+      <c r="F201" s="46"/>
+      <c r="G201" s="46"/>
+      <c r="H201" s="46"/>
+      <c r="I201" s="46"/>
     </row>
     <row r="202" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
-      <c r="B202" s="54" t="s">
+      <c r="B202" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C202" s="54"/>
-      <c r="D202" s="54"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="54"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="54"/>
+      <c r="C202" s="46"/>
+      <c r="D202" s="46"/>
+      <c r="E202" s="46"/>
+      <c r="F202" s="46"/>
+      <c r="G202" s="46"/>
+      <c r="H202" s="46"/>
+      <c r="I202" s="46"/>
     </row>
     <row r="203" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>13</v>
       </c>
-      <c r="B203" s="54" t="s">
+      <c r="B203" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C203" s="54"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="54"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
+      <c r="C203" s="46"/>
+      <c r="D203" s="46"/>
+      <c r="E203" s="46"/>
+      <c r="F203" s="46"/>
+      <c r="G203" s="46"/>
+      <c r="H203" s="46"/>
+      <c r="I203" s="46"/>
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
-      <c r="B204" s="54" t="s">
+      <c r="B204" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C204" s="54"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="54"/>
-      <c r="G204" s="54"/>
-      <c r="H204" s="54"/>
-      <c r="I204" s="54"/>
+      <c r="C204" s="46"/>
+      <c r="D204" s="46"/>
+      <c r="E204" s="46"/>
+      <c r="F204" s="46"/>
+      <c r="G204" s="46"/>
+      <c r="H204" s="46"/>
+      <c r="I204" s="46"/>
     </row>
     <row r="205" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
-      <c r="B205" s="54" t="s">
+      <c r="B205" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C205" s="54"/>
-      <c r="D205" s="54"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="54"/>
-      <c r="G205" s="54"/>
-      <c r="H205" s="54"/>
-      <c r="I205" s="54"/>
+      <c r="C205" s="46"/>
+      <c r="D205" s="46"/>
+      <c r="E205" s="46"/>
+      <c r="F205" s="46"/>
+      <c r="G205" s="46"/>
+      <c r="H205" s="46"/>
+      <c r="I205" s="46"/>
     </row>
     <row r="206" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>14</v>
       </c>
-      <c r="B206" s="54" t="s">
+      <c r="B206" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C206" s="54"/>
-      <c r="D206" s="54"/>
-      <c r="E206" s="54"/>
-      <c r="F206" s="54"/>
-      <c r="G206" s="54"/>
-      <c r="H206" s="54"/>
-      <c r="I206" s="54"/>
+      <c r="C206" s="46"/>
+      <c r="D206" s="46"/>
+      <c r="E206" s="46"/>
+      <c r="F206" s="46"/>
+      <c r="G206" s="46"/>
+      <c r="H206" s="46"/>
+      <c r="I206" s="46"/>
     </row>
     <row r="207" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
-      <c r="B207" s="54" t="s">
+      <c r="B207" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C207" s="54"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="54"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="54"/>
+      <c r="C207" s="46"/>
+      <c r="D207" s="46"/>
+      <c r="E207" s="46"/>
+      <c r="F207" s="46"/>
+      <c r="G207" s="46"/>
+      <c r="H207" s="46"/>
+      <c r="I207" s="46"/>
     </row>
     <row r="208" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
-      <c r="B208" s="54" t="s">
+      <c r="B208" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C208" s="54"/>
-      <c r="D208" s="54"/>
-      <c r="E208" s="54"/>
-      <c r="F208" s="54"/>
-      <c r="G208" s="54"/>
-      <c r="H208" s="54"/>
-      <c r="I208" s="54"/>
+      <c r="C208" s="46"/>
+      <c r="D208" s="46"/>
+      <c r="E208" s="46"/>
+      <c r="F208" s="46"/>
+      <c r="G208" s="46"/>
+      <c r="H208" s="46"/>
+      <c r="I208" s="46"/>
     </row>
     <row r="209" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
-      <c r="B209" s="54" t="s">
+      <c r="B209" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C209" s="54"/>
-      <c r="D209" s="54"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="54"/>
-      <c r="G209" s="54"/>
-      <c r="H209" s="54"/>
-      <c r="I209" s="54"/>
+      <c r="C209" s="46"/>
+      <c r="D209" s="46"/>
+      <c r="E209" s="46"/>
+      <c r="F209" s="46"/>
+      <c r="G209" s="46"/>
+      <c r="H209" s="46"/>
+      <c r="I209" s="46"/>
     </row>
     <row r="210" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
-      <c r="B210" s="54" t="s">
+      <c r="B210" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C210" s="54"/>
-      <c r="D210" s="54"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="54"/>
-      <c r="G210" s="54"/>
-      <c r="H210" s="54"/>
-      <c r="I210" s="54"/>
+      <c r="C210" s="46"/>
+      <c r="D210" s="46"/>
+      <c r="E210" s="46"/>
+      <c r="F210" s="46"/>
+      <c r="G210" s="46"/>
+      <c r="H210" s="46"/>
+      <c r="I210" s="46"/>
     </row>
     <row r="211" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>15</v>
       </c>
-      <c r="B211" s="54" t="s">
+      <c r="B211" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="C211" s="54"/>
-      <c r="D211" s="54"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="54"/>
-      <c r="G211" s="54"/>
-      <c r="H211" s="54"/>
-      <c r="I211" s="54"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="46"/>
+      <c r="E211" s="46"/>
+      <c r="F211" s="46"/>
+      <c r="G211" s="46"/>
+      <c r="H211" s="46"/>
+      <c r="I211" s="46"/>
     </row>
     <row r="212" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>16</v>
       </c>
-      <c r="B212" s="54" t="s">
+      <c r="B212" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C212" s="54"/>
-      <c r="D212" s="54"/>
-      <c r="E212" s="54"/>
-      <c r="F212" s="54"/>
-      <c r="G212" s="54"/>
-      <c r="H212" s="54"/>
-      <c r="I212" s="54"/>
+      <c r="C212" s="46"/>
+      <c r="D212" s="46"/>
+      <c r="E212" s="46"/>
+      <c r="F212" s="46"/>
+      <c r="G212" s="46"/>
+      <c r="H212" s="46"/>
+      <c r="I212" s="46"/>
     </row>
     <row r="213" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>17</v>
       </c>
-      <c r="B213" s="54" t="s">
+      <c r="B213" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C213" s="54"/>
-      <c r="D213" s="54"/>
-      <c r="E213" s="54"/>
-      <c r="F213" s="54"/>
-      <c r="G213" s="54"/>
-      <c r="H213" s="54"/>
-      <c r="I213" s="54"/>
+      <c r="C213" s="46"/>
+      <c r="D213" s="46"/>
+      <c r="E213" s="46"/>
+      <c r="F213" s="46"/>
+      <c r="G213" s="46"/>
+      <c r="H213" s="46"/>
+      <c r="I213" s="46"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
@@ -3935,6 +3945,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B92:I93"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B86:I89"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B212:I212"/>
+    <mergeCell ref="B201:I201"/>
+    <mergeCell ref="B202:I202"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="B208:I208"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="B200:I200"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="B190:I190"/>
+    <mergeCell ref="B191:I191"/>
+    <mergeCell ref="B192:I192"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B194:I194"/>
+    <mergeCell ref="B195:I195"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B197:I197"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="B142:I144"/>
+    <mergeCell ref="B188:I188"/>
+    <mergeCell ref="B175:I175"/>
+    <mergeCell ref="B176:I176"/>
+    <mergeCell ref="B177:I177"/>
+    <mergeCell ref="B178:I178"/>
+    <mergeCell ref="B184:I184"/>
+    <mergeCell ref="B179:I179"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B183:I183"/>
+    <mergeCell ref="B185:I185"/>
+    <mergeCell ref="B186:I186"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="B170:I170"/>
+    <mergeCell ref="B171:I171"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B173:I173"/>
+    <mergeCell ref="B174:I174"/>
     <mergeCell ref="B213:I213"/>
     <mergeCell ref="C139:E139"/>
     <mergeCell ref="B126:I129"/>
@@ -3951,75 +4030,6 @@
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:E137"/>
     <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B170:I170"/>
-    <mergeCell ref="B171:I171"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B173:I173"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="B142:I144"/>
-    <mergeCell ref="B188:I188"/>
-    <mergeCell ref="B175:I175"/>
-    <mergeCell ref="B176:I176"/>
-    <mergeCell ref="B177:I177"/>
-    <mergeCell ref="B178:I178"/>
-    <mergeCell ref="B184:I184"/>
-    <mergeCell ref="B179:I179"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B183:I183"/>
-    <mergeCell ref="B185:I185"/>
-    <mergeCell ref="B186:I186"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="B200:I200"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="B190:I190"/>
-    <mergeCell ref="B191:I191"/>
-    <mergeCell ref="B192:I192"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B194:I194"/>
-    <mergeCell ref="B195:I195"/>
-    <mergeCell ref="B196:I196"/>
-    <mergeCell ref="B197:I197"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="B212:I212"/>
-    <mergeCell ref="B201:I201"/>
-    <mergeCell ref="B202:I202"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B92:I93"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B86:I89"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/app/resource/xlsx/fee_proposal_template_1.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED40D0-7F92-4B50-AF99-B0B5970B0CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0D07D5-B07C-4A4F-A991-1EA2CCA7ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -703,7 +703,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,9 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -818,27 +815,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -857,26 +872,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1322,8 +1325,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X218"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:A83"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A222" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1342,16 +1345,16 @@
       <c r="A1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49" t="e">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1359,10 +1362,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1387,7 +1390,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="44"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="L4" s="14"/>
@@ -1415,15 +1418,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1448,26 +1451,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1475,93 +1478,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1590,16 +1593,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1608,16 +1611,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1626,16 +1629,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1671,16 +1674,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1691,32 +1694,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,46 +1744,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1811,46 +1814,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="34" t="s">
@@ -2008,27 +2011,27 @@
       <c r="I51" s="33"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
+      <c r="A52" s="21"/>
       <c r="C52" s="3"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="45"/>
+      <c r="I52" s="44"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="1"/>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="str">
+      <c r="A54" s="1" t="str">
         <f t="shared" ref="A54:A66" si="0">IF(B54&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="str">
+      <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2041,14 +2044,14 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="str">
+      <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="str">
+      <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2060,7 +2063,7 @@
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="str">
+      <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2072,7 +2075,7 @@
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="str">
+      <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2084,7 +2087,7 @@
       <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="str">
+      <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2096,7 +2099,7 @@
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="str">
+      <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2108,7 +2111,7 @@
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="str">
+      <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2120,7 +2123,7 @@
       <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="str">
+      <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2132,7 +2135,7 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="str">
+      <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2144,7 +2147,7 @@
       <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="str">
+      <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2156,7 +2159,7 @@
       <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="str">
+      <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2168,16 +2171,16 @@
       <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="1"/>
       <c r="C67" s="3"/>
       <c r="E67" s="8"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
-      <c r="I67" s="45"/>
+      <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
+      <c r="A68" s="21"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -2187,7 +2190,7 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="str">
+      <c r="A69" s="1" t="str">
         <f t="shared" ref="A69:A74" si="1">IF(B69&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2197,43 +2200,43 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="1"/>
       <c r="C71" s="3"/>
-      <c r="I71" s="45"/>
+      <c r="I71" s="44"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="str">
+      <c r="A72" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C72" s="3"/>
-      <c r="I72" s="45"/>
+      <c r="I72" s="44"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="str">
+      <c r="A73" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C73" s="3"/>
-      <c r="I73" s="45"/>
+      <c r="I73" s="44"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="str">
+      <c r="A74" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C74" s="3"/>
-      <c r="I74" s="45"/>
+      <c r="I74" s="44"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="1"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="21"/>
       <c r="C76" s="20"/>
       <c r="I76" s="1"/>
       <c r="J76" s="9"/>
@@ -2246,7 +2249,7 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="str">
+      <c r="A77" s="1" t="str">
         <f t="shared" ref="A77:A82" si="2">IF(B77&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2259,7 +2262,7 @@
       <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="str">
+      <c r="A78" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2272,7 +2275,7 @@
       <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="str">
+      <c r="A79" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2285,7 +2288,7 @@
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="str">
+      <c r="A80" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2298,7 +2301,7 @@
       <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="str">
+      <c r="A81" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2311,7 +2314,7 @@
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="str">
+      <c r="A82" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2324,7 +2327,7 @@
       <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="1"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="16"/>
@@ -2334,7 +2337,7 @@
       <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="34" t="s">
@@ -2348,7 +2351,7 @@
       <c r="I84" s="33"/>
     </row>
     <row r="85" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="64" t="s">
         <v>117</v>
       </c>
       <c r="B85" s="34" t="s">
@@ -2362,53 +2365,53 @@
       <c r="I85" s="33"/>
     </row>
     <row r="86" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="48" t="s">
+      <c r="A86" s="33"/>
+      <c r="B86" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
     </row>
     <row r="87" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
     </row>
     <row r="89" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
     </row>
     <row r="90" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="33"/>
       <c r="B90" s="34"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
@@ -2418,7 +2421,7 @@
       <c r="I90" s="33"/>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34">
+      <c r="A91" s="64">
         <v>3.2</v>
       </c>
       <c r="B91" s="34" t="s">
@@ -2432,31 +2435,31 @@
       <c r="I91" s="33"/>
     </row>
     <row r="92" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="48" t="s">
+      <c r="A92" s="33"/>
+      <c r="B92" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
     </row>
     <row r="93" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="48"/>
-      <c r="I93" s="48"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
     </row>
     <row r="94" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -2470,7 +2473,7 @@
       <c r="I94" s="33"/>
     </row>
     <row r="95" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -2484,7 +2487,7 @@
       <c r="I95" s="33"/>
     </row>
     <row r="96" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -2498,7 +2501,7 @@
       <c r="I96" s="33"/>
     </row>
     <row r="97" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="1"/>
       <c r="B97" s="7"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
@@ -2508,7 +2511,7 @@
       <c r="I97" s="33"/>
     </row>
     <row r="98" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="1"/>
       <c r="B98" s="7"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
@@ -2518,7 +2521,7 @@
       <c r="I98" s="33"/>
     </row>
     <row r="99" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="34"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -2528,7 +2531,7 @@
       <c r="I99" s="33"/>
     </row>
     <row r="100" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="34">
+      <c r="A100" s="64">
         <v>3.3</v>
       </c>
       <c r="B100" s="34" t="s">
@@ -2542,21 +2545,21 @@
       <c r="I100" s="33"/>
     </row>
     <row r="101" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="52" t="s">
+      <c r="A101" s="64"/>
+      <c r="B101" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
       <c r="Q101" s="34"/>
     </row>
     <row r="102" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="str">
+      <c r="A102" s="1" t="str">
         <f t="shared" ref="A102:A111" si="3">IF(B102&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2571,7 +2574,7 @@
       <c r="Q102" s="10"/>
     </row>
     <row r="103" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="str">
+      <c r="A103" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2586,7 +2589,7 @@
       <c r="Q103" s="10"/>
     </row>
     <row r="104" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="str">
+      <c r="A104" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2602,7 +2605,7 @@
       <c r="R104" s="7"/>
     </row>
     <row r="105" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="str">
+      <c r="A105" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2617,7 +2620,7 @@
       <c r="Q105" s="10"/>
     </row>
     <row r="106" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="str">
+      <c r="A106" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2632,7 +2635,7 @@
       <c r="Q106" s="10"/>
     </row>
     <row r="107" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="str">
+      <c r="A107" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2648,7 +2651,7 @@
       <c r="R107" s="7"/>
     </row>
     <row r="108" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="str">
+      <c r="A108" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2663,7 +2666,7 @@
       <c r="Q108" s="10"/>
     </row>
     <row r="109" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="str">
+      <c r="A109" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="Q109" s="10"/>
     </row>
     <row r="110" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="str">
+      <c r="A110" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2689,7 +2692,7 @@
       <c r="Q110" s="10"/>
     </row>
     <row r="111" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="str">
+      <c r="A111" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2704,6 +2707,7 @@
       <c r="Q111" s="10"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="65"/>
       <c r="M112" s="5" t="str">
         <f t="array" ref="M112">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
@@ -2713,7 +2717,7 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34">
+      <c r="A113" s="64">
         <v>3.4</v>
       </c>
       <c r="B113" s="34" t="s">
@@ -2729,17 +2733,17 @@
       <c r="Q113" s="5"/>
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="49" t="s">
+      <c r="A114" s="64"/>
+      <c r="B114" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="49"/>
-      <c r="I114" s="49"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
       <c r="M114" s="7"/>
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
@@ -2747,7 +2751,7 @@
       <c r="Q114" s="5"/>
     </row>
     <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
+      <c r="A115" s="64"/>
       <c r="B115" t="s">
         <v>9</v>
       </c>
@@ -2761,6 +2765,7 @@
       <c r="Q115" s="5"/>
     </row>
     <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>12</v>
       </c>
@@ -2772,7 +2777,7 @@
       <c r="Q116" s="5"/>
     </row>
     <row r="117" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117"/>
+      <c r="A117" s="1"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="16"/>
@@ -2788,7 +2793,7 @@
       <c r="Q117" s="5"/>
     </row>
     <row r="118" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B118" s="34" t="s">
@@ -2806,48 +2811,51 @@
       <c r="P118"/>
     </row>
     <row r="119" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="52" t="s">
+      <c r="A119" s="65"/>
+      <c r="B119" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="52"/>
-      <c r="D119" s="52"/>
-      <c r="E119" s="52"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="52"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="45"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
     <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
       <c r="B120" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="28"/>
-      <c r="D120" s="50" t="s">
+      <c r="D120" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50" t="s">
+      <c r="E120" s="56"/>
+      <c r="F120" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="50"/>
+      <c r="G120" s="56"/>
       <c r="H120" s="9"/>
       <c r="Q120" s="5"/>
     </row>
     <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
       <c r="B121" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C121" s="28"/>
-      <c r="D121" s="50" t="s">
+      <c r="D121" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E121" s="50"/>
-      <c r="F121" s="51">
+      <c r="E121" s="56"/>
+      <c r="F121" s="57">
         <v>10000000</v>
       </c>
-      <c r="G121" s="51"/>
+      <c r="G121" s="57"/>
       <c r="H121" s="23"/>
       <c r="I121" s="7"/>
       <c r="M121" s="5"/>
@@ -2857,22 +2865,24 @@
       <c r="Q121" s="5"/>
     </row>
     <row r="122" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
       <c r="B122" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C122" s="28"/>
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="50"/>
-      <c r="F122" s="51">
+      <c r="E122" s="56"/>
+      <c r="F122" s="57">
         <v>20000000</v>
       </c>
-      <c r="G122" s="51"/>
+      <c r="G122" s="57"/>
       <c r="H122" s="23"/>
       <c r="M122" s="9"/>
     </row>
     <row r="123" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
       <c r="B123" s="12" t="s">
         <v>120</v>
       </c>
@@ -2885,6 +2895,7 @@
       <c r="M123" s="23"/>
     </row>
     <row r="124" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
@@ -2896,7 +2907,7 @@
       <c r="M124" s="23"/>
     </row>
     <row r="125" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="35" t="s">
+      <c r="A125" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B125" s="34" t="s">
@@ -2908,50 +2919,50 @@
     </row>
     <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="48" t="s">
+      <c r="B126" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C126" s="48"/>
-      <c r="D126" s="48"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="48"/>
-      <c r="I126" s="48"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
+      <c r="I126" s="47"/>
       <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="48"/>
-      <c r="I127" s="48"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="47"/>
     </row>
     <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="48"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="48"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="47"/>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="48"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="48"/>
-      <c r="I129" s="48"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2966,7 +2977,7 @@
       <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B131" s="34" t="s">
@@ -2994,94 +3005,102 @@
       <c r="I132" s="21"/>
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="48" t="s">
+      <c r="A133" s="1"/>
+      <c r="B133" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="48"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="48"/>
-      <c r="I133" s="48"/>
+      <c r="C133" s="47"/>
+      <c r="D133" s="47"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="47"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="47"/>
     </row>
     <row r="134" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="48"/>
-      <c r="C134" s="48"/>
-      <c r="D134" s="48"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="48"/>
-      <c r="I134" s="48"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="53" t="s">
+      <c r="A135" s="1"/>
+      <c r="B135" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="54"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="41" t="s">
+      <c r="C135" s="59"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G135" s="41" t="s">
+      <c r="G135" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="56"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="58"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="62"/>
+      <c r="E136" s="63"/>
       <c r="F136" s="31"/>
       <c r="G136" s="31"/>
       <c r="H136" s="23"/>
       <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="56"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="58"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="63"/>
       <c r="F137" s="31"/>
       <c r="G137" s="31"/>
       <c r="H137" s="23"/>
       <c r="I137" s="7"/>
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="56"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="58"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="62"/>
+      <c r="D138" s="62"/>
+      <c r="E138" s="63"/>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
       <c r="H138" s="23"/>
       <c r="I138" s="7"/>
     </row>
     <row r="139" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="47" t="s">
+      <c r="A139" s="1"/>
+      <c r="C139" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D139" s="47"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="42">
+      <c r="D139" s="55"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="41">
         <f>SUM(F136:F138)</f>
         <v>0</v>
       </c>
-      <c r="G139" s="42">
+      <c r="G139" s="41">
         <f>SUM(G136:G138)</f>
         <v>0</v>
       </c>
       <c r="H139" s="23"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C140" s="43"/>
-      <c r="D140" s="43"/>
-      <c r="E140" s="43"/>
-      <c r="F140" s="42"/>
-      <c r="G140" s="42"/>
+      <c r="A140" s="1"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
+      <c r="E140" s="42"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
       <c r="H140" s="23"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,40 +3118,42 @@
       <c r="H141" s="23"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B142" s="48" t="s">
+      <c r="A142" s="1"/>
+      <c r="B142" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C142" s="48"/>
-      <c r="D142" s="48"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="48"/>
-      <c r="I142" s="48"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="47"/>
+      <c r="I142" s="47"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
-      <c r="B143" s="48"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="48"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="48"/>
-      <c r="G143" s="48"/>
-      <c r="H143" s="48"/>
-      <c r="I143" s="48"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="47"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
-      <c r="B144" s="48"/>
-      <c r="C144" s="48"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="48"/>
-      <c r="G144" s="48"/>
-      <c r="H144" s="48"/>
-      <c r="I144" s="48"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="47"/>
+      <c r="I144" s="47"/>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
       <c r="B145" t="s">
         <v>16</v>
       </c>
@@ -3148,6 +3169,7 @@
       <c r="H145" s="24"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
       <c r="B146" t="s">
         <v>135</v>
       </c>
@@ -3163,6 +3185,7 @@
       <c r="H146" s="24"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
       <c r="B147" t="s">
         <v>136</v>
       </c>
@@ -3178,6 +3201,7 @@
       <c r="H147" s="24"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
       <c r="H148" s="24"/>
@@ -3194,18 +3218,19 @@
       <c r="H149" s="24"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
       <c r="B150" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="43"/>
-      <c r="F150" s="42"/>
-      <c r="G150" s="42"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="42"/>
+      <c r="E150" s="42"/>
+      <c r="F150" s="41"/>
+      <c r="G150" s="41"/>
       <c r="H150" s="23"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="17"/>
+      <c r="A151" s="66"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -3216,7 +3241,7 @@
       <c r="I151" s="17"/>
     </row>
     <row r="152" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="35" t="s">
+      <c r="A152" s="33" t="s">
         <v>42</v>
       </c>
       <c r="B152" s="34" t="s">
@@ -3240,6 +3265,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
       <c r="B155" s="12" t="s">
         <v>45</v>
       </c>
@@ -3248,9 +3274,11 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
       <c r="B156" s="12"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
       <c r="B157" s="12" t="s">
         <v>46</v>
       </c>
@@ -3259,61 +3287,72 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
       <c r="B158" s="12"/>
       <c r="F158" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
       <c r="B159" s="12"/>
       <c r="F159" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
       <c r="B160" s="12"/>
       <c r="F160" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
       <c r="B161" s="12"/>
       <c r="F161" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
       <c r="B162" s="12"/>
       <c r="F162" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
       <c r="B163" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
       <c r="B164" s="10"/>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
       <c r="B165" s="10"/>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
       <c r="B166" s="10"/>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
       <c r="B167" s="10"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
       <c r="B168" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F168" s="59">
+      <c r="F168" s="54">
         <f ca="1">TODAY()</f>
-        <v>45250</v>
-      </c>
-      <c r="G168" s="59"/>
+        <v>45264</v>
+      </c>
+      <c r="G168" s="54"/>
     </row>
     <row r="169" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
@@ -3326,607 +3365,607 @@
       <c r="A170" s="8">
         <v>1</v>
       </c>
-      <c r="B170" s="46" t="s">
+      <c r="B170" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C170" s="46"/>
-      <c r="D170" s="46"/>
-      <c r="E170" s="46"/>
-      <c r="F170" s="46"/>
-      <c r="G170" s="46"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="46"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="53"/>
+      <c r="E170" s="53"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="53"/>
+      <c r="H170" s="53"/>
+      <c r="I170" s="53"/>
     </row>
     <row r="171" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>2</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C171" s="46"/>
-      <c r="D171" s="46"/>
-      <c r="E171" s="46"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="46"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="53"/>
+      <c r="E171" s="53"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="53"/>
+      <c r="H171" s="53"/>
+      <c r="I171" s="53"/>
     </row>
     <row r="172" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>3</v>
       </c>
-      <c r="B172" s="46" t="s">
+      <c r="B172" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="46"/>
-      <c r="D172" s="46"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="46"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="46"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="53"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="53"/>
+      <c r="H172" s="53"/>
+      <c r="I172" s="53"/>
     </row>
     <row r="173" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>4</v>
       </c>
-      <c r="B173" s="46" t="s">
+      <c r="B173" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C173" s="46"/>
-      <c r="D173" s="46"/>
-      <c r="E173" s="46"/>
-      <c r="F173" s="46"/>
-      <c r="G173" s="46"/>
-      <c r="H173" s="46"/>
-      <c r="I173" s="46"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="53"/>
+      <c r="E173" s="53"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="53"/>
+      <c r="H173" s="53"/>
+      <c r="I173" s="53"/>
     </row>
     <row r="174" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>5</v>
       </c>
-      <c r="B174" s="46" t="s">
+      <c r="B174" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C174" s="46"/>
-      <c r="D174" s="46"/>
-      <c r="E174" s="46"/>
-      <c r="F174" s="46"/>
-      <c r="G174" s="46"/>
-      <c r="H174" s="46"/>
-      <c r="I174" s="46"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="53"/>
+      <c r="E174" s="53"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="53"/>
+      <c r="H174" s="53"/>
+      <c r="I174" s="53"/>
     </row>
     <row r="175" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
-      <c r="B175" s="46" t="s">
+      <c r="B175" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="46"/>
-      <c r="D175" s="46"/>
-      <c r="E175" s="46"/>
-      <c r="F175" s="46"/>
-      <c r="G175" s="46"/>
-      <c r="H175" s="46"/>
-      <c r="I175" s="46"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="53"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="53"/>
+      <c r="I175" s="53"/>
     </row>
     <row r="176" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C176" s="46"/>
-      <c r="D176" s="46"/>
-      <c r="E176" s="46"/>
-      <c r="F176" s="46"/>
-      <c r="G176" s="46"/>
-      <c r="H176" s="46"/>
-      <c r="I176" s="46"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="53"/>
+      <c r="E176" s="53"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="53"/>
+      <c r="H176" s="53"/>
+      <c r="I176" s="53"/>
     </row>
     <row r="177" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C177" s="46"/>
-      <c r="D177" s="46"/>
-      <c r="E177" s="46"/>
-      <c r="F177" s="46"/>
-      <c r="G177" s="46"/>
-      <c r="H177" s="46"/>
-      <c r="I177" s="46"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="53"/>
+      <c r="H177" s="53"/>
+      <c r="I177" s="53"/>
     </row>
     <row r="178" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>6</v>
       </c>
-      <c r="B178" s="46" t="s">
+      <c r="B178" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C178" s="46"/>
-      <c r="D178" s="46"/>
-      <c r="E178" s="46"/>
-      <c r="F178" s="46"/>
-      <c r="G178" s="46"/>
-      <c r="H178" s="46"/>
-      <c r="I178" s="46"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="53"/>
+      <c r="H178" s="53"/>
+      <c r="I178" s="53"/>
     </row>
     <row r="179" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
-      <c r="B179" s="46" t="s">
+      <c r="B179" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C179" s="46"/>
-      <c r="D179" s="46"/>
-      <c r="E179" s="46"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="46"/>
-      <c r="H179" s="46"/>
-      <c r="I179" s="46"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="53"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="53"/>
+      <c r="H179" s="53"/>
+      <c r="I179" s="53"/>
     </row>
     <row r="180" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
-      <c r="B180" s="46" t="s">
+      <c r="B180" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C180" s="46"/>
-      <c r="D180" s="46"/>
-      <c r="E180" s="46"/>
-      <c r="F180" s="46"/>
-      <c r="G180" s="46"/>
-      <c r="H180" s="46"/>
-      <c r="I180" s="46"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="53"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="53"/>
+      <c r="H180" s="53"/>
+      <c r="I180" s="53"/>
     </row>
     <row r="181" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>7</v>
       </c>
-      <c r="B181" s="46" t="s">
+      <c r="B181" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C181" s="46"/>
-      <c r="D181" s="46"/>
-      <c r="E181" s="46"/>
-      <c r="F181" s="46"/>
-      <c r="G181" s="46"/>
-      <c r="H181" s="46"/>
-      <c r="I181" s="46"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="53"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="53"/>
+      <c r="H181" s="53"/>
+      <c r="I181" s="53"/>
     </row>
     <row r="182" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>8</v>
       </c>
-      <c r="B182" s="46" t="s">
+      <c r="B182" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C182" s="46"/>
-      <c r="D182" s="46"/>
-      <c r="E182" s="46"/>
-      <c r="F182" s="46"/>
-      <c r="G182" s="46"/>
-      <c r="H182" s="46"/>
-      <c r="I182" s="46"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="53"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="53"/>
+      <c r="H182" s="53"/>
+      <c r="I182" s="53"/>
     </row>
     <row r="183" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
-      <c r="B183" s="46" t="s">
+      <c r="B183" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C183" s="46"/>
-      <c r="D183" s="46"/>
-      <c r="E183" s="46"/>
-      <c r="F183" s="46"/>
-      <c r="G183" s="46"/>
-      <c r="H183" s="46"/>
-      <c r="I183" s="46"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="53"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="53"/>
+      <c r="H183" s="53"/>
+      <c r="I183" s="53"/>
     </row>
     <row r="184" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
-      <c r="B184" s="46" t="s">
+      <c r="B184" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C184" s="46"/>
-      <c r="D184" s="46"/>
-      <c r="E184" s="46"/>
-      <c r="F184" s="46"/>
-      <c r="G184" s="46"/>
-      <c r="H184" s="46"/>
-      <c r="I184" s="46"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="53"/>
+      <c r="E184" s="53"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="53"/>
+      <c r="H184" s="53"/>
+      <c r="I184" s="53"/>
     </row>
     <row r="185" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
-      <c r="B185" s="46" t="s">
+      <c r="B185" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="46"/>
-      <c r="D185" s="46"/>
-      <c r="E185" s="46"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="46"/>
-      <c r="H185" s="46"/>
-      <c r="I185" s="46"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="53"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="53"/>
+      <c r="H185" s="53"/>
+      <c r="I185" s="53"/>
     </row>
     <row r="186" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
-      <c r="B186" s="46" t="s">
+      <c r="B186" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C186" s="46"/>
-      <c r="D186" s="46"/>
-      <c r="E186" s="46"/>
-      <c r="F186" s="46"/>
-      <c r="G186" s="46"/>
-      <c r="H186" s="46"/>
-      <c r="I186" s="46"/>
+      <c r="C186" s="53"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="53"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="53"/>
+      <c r="H186" s="53"/>
+      <c r="I186" s="53"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
-      <c r="B187" s="46" t="s">
+      <c r="B187" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C187" s="46"/>
-      <c r="D187" s="46"/>
-      <c r="E187" s="46"/>
-      <c r="F187" s="46"/>
-      <c r="G187" s="46"/>
-      <c r="H187" s="46"/>
-      <c r="I187" s="46"/>
+      <c r="C187" s="53"/>
+      <c r="D187" s="53"/>
+      <c r="E187" s="53"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="53"/>
+      <c r="H187" s="53"/>
+      <c r="I187" s="53"/>
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
-      <c r="B188" s="46" t="s">
+      <c r="B188" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C188" s="46"/>
-      <c r="D188" s="46"/>
-      <c r="E188" s="46"/>
-      <c r="F188" s="46"/>
-      <c r="G188" s="46"/>
-      <c r="H188" s="46"/>
-      <c r="I188" s="46"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="53"/>
+      <c r="E188" s="53"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="53"/>
+      <c r="H188" s="53"/>
+      <c r="I188" s="53"/>
     </row>
     <row r="189" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>9</v>
       </c>
-      <c r="B189" s="46" t="s">
+      <c r="B189" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C189" s="46"/>
-      <c r="D189" s="46"/>
-      <c r="E189" s="46"/>
-      <c r="F189" s="46"/>
-      <c r="G189" s="46"/>
-      <c r="H189" s="46"/>
-      <c r="I189" s="46"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="53"/>
+      <c r="H189" s="53"/>
+      <c r="I189" s="53"/>
     </row>
     <row r="190" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>10</v>
       </c>
-      <c r="B190" s="46" t="s">
+      <c r="B190" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C190" s="46"/>
-      <c r="D190" s="46"/>
-      <c r="E190" s="46"/>
-      <c r="F190" s="46"/>
-      <c r="G190" s="46"/>
-      <c r="H190" s="46"/>
-      <c r="I190" s="46"/>
+      <c r="C190" s="53"/>
+      <c r="D190" s="53"/>
+      <c r="E190" s="53"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="53"/>
+      <c r="H190" s="53"/>
+      <c r="I190" s="53"/>
     </row>
     <row r="191" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
-      <c r="B191" s="46" t="s">
+      <c r="B191" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C191" s="46"/>
-      <c r="D191" s="46"/>
-      <c r="E191" s="46"/>
-      <c r="F191" s="46"/>
-      <c r="G191" s="46"/>
-      <c r="H191" s="46"/>
-      <c r="I191" s="46"/>
+      <c r="C191" s="53"/>
+      <c r="D191" s="53"/>
+      <c r="E191" s="53"/>
+      <c r="F191" s="53"/>
+      <c r="G191" s="53"/>
+      <c r="H191" s="53"/>
+      <c r="I191" s="53"/>
     </row>
     <row r="192" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
-      <c r="B192" s="46" t="s">
+      <c r="B192" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C192" s="46"/>
-      <c r="D192" s="46"/>
-      <c r="E192" s="46"/>
-      <c r="F192" s="46"/>
-      <c r="G192" s="46"/>
-      <c r="H192" s="46"/>
-      <c r="I192" s="46"/>
+      <c r="C192" s="53"/>
+      <c r="D192" s="53"/>
+      <c r="E192" s="53"/>
+      <c r="F192" s="53"/>
+      <c r="G192" s="53"/>
+      <c r="H192" s="53"/>
+      <c r="I192" s="53"/>
     </row>
     <row r="193" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="46"/>
-      <c r="D193" s="46"/>
-      <c r="E193" s="46"/>
-      <c r="F193" s="46"/>
-      <c r="G193" s="46"/>
-      <c r="H193" s="46"/>
-      <c r="I193" s="46"/>
+      <c r="C193" s="53"/>
+      <c r="D193" s="53"/>
+      <c r="E193" s="53"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="53"/>
+      <c r="H193" s="53"/>
+      <c r="I193" s="53"/>
     </row>
     <row r="194" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
-      <c r="B194" s="46" t="s">
+      <c r="B194" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C194" s="46"/>
-      <c r="D194" s="46"/>
-      <c r="E194" s="46"/>
-      <c r="F194" s="46"/>
-      <c r="G194" s="46"/>
-      <c r="H194" s="46"/>
-      <c r="I194" s="46"/>
+      <c r="C194" s="53"/>
+      <c r="D194" s="53"/>
+      <c r="E194" s="53"/>
+      <c r="F194" s="53"/>
+      <c r="G194" s="53"/>
+      <c r="H194" s="53"/>
+      <c r="I194" s="53"/>
     </row>
     <row r="195" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>11</v>
       </c>
-      <c r="B195" s="46" t="s">
+      <c r="B195" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C195" s="46"/>
-      <c r="D195" s="46"/>
-      <c r="E195" s="46"/>
-      <c r="F195" s="46"/>
-      <c r="G195" s="46"/>
-      <c r="H195" s="46"/>
-      <c r="I195" s="46"/>
+      <c r="C195" s="53"/>
+      <c r="D195" s="53"/>
+      <c r="E195" s="53"/>
+      <c r="F195" s="53"/>
+      <c r="G195" s="53"/>
+      <c r="H195" s="53"/>
+      <c r="I195" s="53"/>
     </row>
     <row r="196" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
-      <c r="B196" s="46" t="s">
+      <c r="B196" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C196" s="46"/>
-      <c r="D196" s="46"/>
-      <c r="E196" s="46"/>
-      <c r="F196" s="46"/>
-      <c r="G196" s="46"/>
-      <c r="H196" s="46"/>
-      <c r="I196" s="46"/>
+      <c r="C196" s="53"/>
+      <c r="D196" s="53"/>
+      <c r="E196" s="53"/>
+      <c r="F196" s="53"/>
+      <c r="G196" s="53"/>
+      <c r="H196" s="53"/>
+      <c r="I196" s="53"/>
     </row>
     <row r="197" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C197" s="46"/>
-      <c r="D197" s="46"/>
-      <c r="E197" s="46"/>
-      <c r="F197" s="46"/>
-      <c r="G197" s="46"/>
-      <c r="H197" s="46"/>
-      <c r="I197" s="46"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="53"/>
+      <c r="E197" s="53"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="53"/>
+      <c r="H197" s="53"/>
+      <c r="I197" s="53"/>
     </row>
     <row r="198" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>12</v>
       </c>
-      <c r="B198" s="46" t="s">
+      <c r="B198" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C198" s="46"/>
-      <c r="D198" s="46"/>
-      <c r="E198" s="46"/>
-      <c r="F198" s="46"/>
-      <c r="G198" s="46"/>
-      <c r="H198" s="46"/>
-      <c r="I198" s="46"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="53"/>
+      <c r="E198" s="53"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="53"/>
+      <c r="H198" s="53"/>
+      <c r="I198" s="53"/>
     </row>
     <row r="199" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
-      <c r="B199" s="46" t="s">
+      <c r="B199" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C199" s="46"/>
-      <c r="D199" s="46"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="46"/>
-      <c r="G199" s="46"/>
-      <c r="H199" s="46"/>
-      <c r="I199" s="46"/>
+      <c r="C199" s="53"/>
+      <c r="D199" s="53"/>
+      <c r="E199" s="53"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="53"/>
+      <c r="H199" s="53"/>
+      <c r="I199" s="53"/>
     </row>
     <row r="200" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
-      <c r="B200" s="46" t="s">
+      <c r="B200" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C200" s="46"/>
-      <c r="D200" s="46"/>
-      <c r="E200" s="46"/>
-      <c r="F200" s="46"/>
-      <c r="G200" s="46"/>
-      <c r="H200" s="46"/>
-      <c r="I200" s="46"/>
+      <c r="C200" s="53"/>
+      <c r="D200" s="53"/>
+      <c r="E200" s="53"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="53"/>
+      <c r="H200" s="53"/>
+      <c r="I200" s="53"/>
     </row>
     <row r="201" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
-      <c r="B201" s="46" t="s">
+      <c r="B201" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C201" s="46"/>
-      <c r="D201" s="46"/>
-      <c r="E201" s="46"/>
-      <c r="F201" s="46"/>
-      <c r="G201" s="46"/>
-      <c r="H201" s="46"/>
-      <c r="I201" s="46"/>
+      <c r="C201" s="53"/>
+      <c r="D201" s="53"/>
+      <c r="E201" s="53"/>
+      <c r="F201" s="53"/>
+      <c r="G201" s="53"/>
+      <c r="H201" s="53"/>
+      <c r="I201" s="53"/>
     </row>
     <row r="202" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
-      <c r="B202" s="46" t="s">
+      <c r="B202" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C202" s="46"/>
-      <c r="D202" s="46"/>
-      <c r="E202" s="46"/>
-      <c r="F202" s="46"/>
-      <c r="G202" s="46"/>
-      <c r="H202" s="46"/>
-      <c r="I202" s="46"/>
+      <c r="C202" s="53"/>
+      <c r="D202" s="53"/>
+      <c r="E202" s="53"/>
+      <c r="F202" s="53"/>
+      <c r="G202" s="53"/>
+      <c r="H202" s="53"/>
+      <c r="I202" s="53"/>
     </row>
     <row r="203" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>13</v>
       </c>
-      <c r="B203" s="46" t="s">
+      <c r="B203" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C203" s="46"/>
-      <c r="D203" s="46"/>
-      <c r="E203" s="46"/>
-      <c r="F203" s="46"/>
-      <c r="G203" s="46"/>
-      <c r="H203" s="46"/>
-      <c r="I203" s="46"/>
+      <c r="C203" s="53"/>
+      <c r="D203" s="53"/>
+      <c r="E203" s="53"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="53"/>
+      <c r="H203" s="53"/>
+      <c r="I203" s="53"/>
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
-      <c r="B204" s="46" t="s">
+      <c r="B204" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C204" s="46"/>
-      <c r="D204" s="46"/>
-      <c r="E204" s="46"/>
-      <c r="F204" s="46"/>
-      <c r="G204" s="46"/>
-      <c r="H204" s="46"/>
-      <c r="I204" s="46"/>
+      <c r="C204" s="53"/>
+      <c r="D204" s="53"/>
+      <c r="E204" s="53"/>
+      <c r="F204" s="53"/>
+      <c r="G204" s="53"/>
+      <c r="H204" s="53"/>
+      <c r="I204" s="53"/>
     </row>
     <row r="205" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
-      <c r="B205" s="46" t="s">
+      <c r="B205" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C205" s="46"/>
-      <c r="D205" s="46"/>
-      <c r="E205" s="46"/>
-      <c r="F205" s="46"/>
-      <c r="G205" s="46"/>
-      <c r="H205" s="46"/>
-      <c r="I205" s="46"/>
+      <c r="C205" s="53"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="53"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="53"/>
+      <c r="H205" s="53"/>
+      <c r="I205" s="53"/>
     </row>
     <row r="206" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>14</v>
       </c>
-      <c r="B206" s="46" t="s">
+      <c r="B206" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C206" s="46"/>
-      <c r="D206" s="46"/>
-      <c r="E206" s="46"/>
-      <c r="F206" s="46"/>
-      <c r="G206" s="46"/>
-      <c r="H206" s="46"/>
-      <c r="I206" s="46"/>
+      <c r="C206" s="53"/>
+      <c r="D206" s="53"/>
+      <c r="E206" s="53"/>
+      <c r="F206" s="53"/>
+      <c r="G206" s="53"/>
+      <c r="H206" s="53"/>
+      <c r="I206" s="53"/>
     </row>
     <row r="207" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
-      <c r="B207" s="46" t="s">
+      <c r="B207" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C207" s="46"/>
-      <c r="D207" s="46"/>
-      <c r="E207" s="46"/>
-      <c r="F207" s="46"/>
-      <c r="G207" s="46"/>
-      <c r="H207" s="46"/>
-      <c r="I207" s="46"/>
+      <c r="C207" s="53"/>
+      <c r="D207" s="53"/>
+      <c r="E207" s="53"/>
+      <c r="F207" s="53"/>
+      <c r="G207" s="53"/>
+      <c r="H207" s="53"/>
+      <c r="I207" s="53"/>
     </row>
     <row r="208" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
-      <c r="B208" s="46" t="s">
+      <c r="B208" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C208" s="46"/>
-      <c r="D208" s="46"/>
-      <c r="E208" s="46"/>
-      <c r="F208" s="46"/>
-      <c r="G208" s="46"/>
-      <c r="H208" s="46"/>
-      <c r="I208" s="46"/>
+      <c r="C208" s="53"/>
+      <c r="D208" s="53"/>
+      <c r="E208" s="53"/>
+      <c r="F208" s="53"/>
+      <c r="G208" s="53"/>
+      <c r="H208" s="53"/>
+      <c r="I208" s="53"/>
     </row>
     <row r="209" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
-      <c r="B209" s="46" t="s">
+      <c r="B209" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C209" s="46"/>
-      <c r="D209" s="46"/>
-      <c r="E209" s="46"/>
-      <c r="F209" s="46"/>
-      <c r="G209" s="46"/>
-      <c r="H209" s="46"/>
-      <c r="I209" s="46"/>
+      <c r="C209" s="53"/>
+      <c r="D209" s="53"/>
+      <c r="E209" s="53"/>
+      <c r="F209" s="53"/>
+      <c r="G209" s="53"/>
+      <c r="H209" s="53"/>
+      <c r="I209" s="53"/>
     </row>
     <row r="210" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
-      <c r="B210" s="46" t="s">
+      <c r="B210" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C210" s="46"/>
-      <c r="D210" s="46"/>
-      <c r="E210" s="46"/>
-      <c r="F210" s="46"/>
-      <c r="G210" s="46"/>
-      <c r="H210" s="46"/>
-      <c r="I210" s="46"/>
+      <c r="C210" s="53"/>
+      <c r="D210" s="53"/>
+      <c r="E210" s="53"/>
+      <c r="F210" s="53"/>
+      <c r="G210" s="53"/>
+      <c r="H210" s="53"/>
+      <c r="I210" s="53"/>
     </row>
     <row r="211" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>15</v>
       </c>
-      <c r="B211" s="46" t="s">
+      <c r="B211" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C211" s="46"/>
-      <c r="D211" s="46"/>
-      <c r="E211" s="46"/>
-      <c r="F211" s="46"/>
-      <c r="G211" s="46"/>
-      <c r="H211" s="46"/>
-      <c r="I211" s="46"/>
+      <c r="C211" s="53"/>
+      <c r="D211" s="53"/>
+      <c r="E211" s="53"/>
+      <c r="F211" s="53"/>
+      <c r="G211" s="53"/>
+      <c r="H211" s="53"/>
+      <c r="I211" s="53"/>
     </row>
     <row r="212" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>16</v>
       </c>
-      <c r="B212" s="46" t="s">
+      <c r="B212" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C212" s="46"/>
-      <c r="D212" s="46"/>
-      <c r="E212" s="46"/>
-      <c r="F212" s="46"/>
-      <c r="G212" s="46"/>
-      <c r="H212" s="46"/>
-      <c r="I212" s="46"/>
+      <c r="C212" s="53"/>
+      <c r="D212" s="53"/>
+      <c r="E212" s="53"/>
+      <c r="F212" s="53"/>
+      <c r="G212" s="53"/>
+      <c r="H212" s="53"/>
+      <c r="I212" s="53"/>
     </row>
     <row r="213" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>17</v>
       </c>
-      <c r="B213" s="46" t="s">
+      <c r="B213" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C213" s="46"/>
-      <c r="D213" s="46"/>
-      <c r="E213" s="46"/>
-      <c r="F213" s="46"/>
-      <c r="G213" s="46"/>
-      <c r="H213" s="46"/>
-      <c r="I213" s="46"/>
+      <c r="C213" s="53"/>
+      <c r="D213" s="53"/>
+      <c r="E213" s="53"/>
+      <c r="F213" s="53"/>
+      <c r="G213" s="53"/>
+      <c r="H213" s="53"/>
+      <c r="I213" s="53"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
@@ -3945,54 +3984,27 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B92:I93"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B86:I89"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B212:I212"/>
-    <mergeCell ref="B201:I201"/>
-    <mergeCell ref="B202:I202"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B200:I200"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="B190:I190"/>
-    <mergeCell ref="B191:I191"/>
-    <mergeCell ref="B192:I192"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B194:I194"/>
-    <mergeCell ref="B195:I195"/>
-    <mergeCell ref="B196:I196"/>
-    <mergeCell ref="B197:I197"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="B213:I213"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="B126:I129"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="B133:I134"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B170:I170"/>
+    <mergeCell ref="B171:I171"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B173:I173"/>
+    <mergeCell ref="B174:I174"/>
     <mergeCell ref="F168:G168"/>
     <mergeCell ref="B142:I144"/>
     <mergeCell ref="B188:I188"/>
@@ -4009,27 +4021,54 @@
     <mergeCell ref="B185:I185"/>
     <mergeCell ref="B186:I186"/>
     <mergeCell ref="B187:I187"/>
-    <mergeCell ref="B170:I170"/>
-    <mergeCell ref="B171:I171"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B173:I173"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B213:I213"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="B126:I129"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="B133:I134"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B200:I200"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="B190:I190"/>
+    <mergeCell ref="B191:I191"/>
+    <mergeCell ref="B192:I192"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B194:I194"/>
+    <mergeCell ref="B195:I195"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B197:I197"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="B212:I212"/>
+    <mergeCell ref="B201:I201"/>
+    <mergeCell ref="B202:I202"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="B208:I208"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B92:I93"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B86:I89"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/app/resource/xlsx/fee_proposal_template_1.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0D07D5-B07C-4A4F-A991-1EA2CCA7ABE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026087E4-AD1F-4EDA-86C4-531C3C8065F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -405,9 +405,6 @@
     <t>Receive base building drawings detailing information of air conditioning and ventilation provision</t>
   </si>
   <si>
-    <t>ATT:</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
@@ -498,6 +495,9 @@
   </si>
   <si>
     <t>Perform site visit (if included), obtain site photos(inside and outside of the tenancy, shopfront, roof)</t>
+  </si>
+  <si>
+    <t>ATT:</t>
   </si>
 </sst>
 </file>
@@ -815,71 +815,71 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1026,9 +1026,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1066,7 +1066,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1172,7 +1172,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1314,7 +1314,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1325,8 +1325,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X218"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A222" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A168"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1343,18 +1343,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="e">
-        <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
-        <v>#REF!</v>
+        <v>142</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1362,10 +1357,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1400,10 +1395,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="str">
-        <f>CONCATENATE("Dear ", IF(B1&lt;&gt;"", IFERROR(LEFT(B1,FIND(" ",B1)-1),B1),""), ",")</f>
-        <v>Dear ,</v>
-      </c>
+      <c r="A5" s="12"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1418,15 +1410,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1451,26 +1443,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1478,93 +1470,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
+      <c r="A11" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1593,16 +1585,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1611,16 +1603,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1629,16 +1621,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1674,16 +1666,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1694,32 +1686,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="B23" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="B24" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1744,46 +1736,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1814,46 +1806,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1903,7 +1895,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1913,7 +1905,7 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -2351,11 +2343,11 @@
       <c r="I84" s="33"/>
     </row>
     <row r="85" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="64" t="s">
-        <v>117</v>
+      <c r="A85" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -2366,49 +2358,49 @@
     </row>
     <row r="86" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
-      <c r="B86" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
+      <c r="B86" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
     </row>
     <row r="87" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
     </row>
     <row r="89" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
     </row>
     <row r="90" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33"/>
@@ -2421,11 +2413,11 @@
       <c r="I90" s="33"/>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="64">
+      <c r="A91" s="45">
         <v>3.2</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -2436,34 +2428,34 @@
     </row>
     <row r="92" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33"/>
-      <c r="B92" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
+      <c r="B92" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
     </row>
     <row r="93" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
     </row>
     <row r="94" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -2477,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -2491,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -2531,11 +2523,11 @@
       <c r="I99" s="33"/>
     </row>
     <row r="100" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="64">
+      <c r="A100" s="45">
         <v>3.3</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -2545,17 +2537,17 @@
       <c r="I100" s="33"/>
     </row>
     <row r="101" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
-      <c r="B101" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="54"/>
       <c r="Q101" s="34"/>
     </row>
     <row r="102" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2707,7 +2699,7 @@
       <c r="Q111" s="10"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
+      <c r="A112" s="46"/>
       <c r="M112" s="5" t="str">
         <f t="array" ref="M112">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
@@ -2717,11 +2709,11 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="64">
+      <c r="A113" s="45">
         <v>3.4</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M113" s="5" t="str">
         <f t="array" ref="M113">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
@@ -2733,17 +2725,17 @@
       <c r="Q113" s="5"/>
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
-      <c r="B114" s="46" t="s">
+      <c r="A114" s="45"/>
+      <c r="B114" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="46"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="46"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="46"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
       <c r="M114" s="7"/>
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
@@ -2751,12 +2743,12 @@
       <c r="Q114" s="5"/>
     </row>
     <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
+      <c r="A115" s="45"/>
       <c r="B115" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M115" s="12"/>
       <c r="N115" s="7"/>
@@ -2811,17 +2803,17 @@
       <c r="P118"/>
     </row>
     <row r="119" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
-      <c r="B119" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
+      <c r="A119" s="46"/>
+      <c r="B119" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
@@ -2831,14 +2823,14 @@
         <v>28</v>
       </c>
       <c r="C120" s="28"/>
-      <c r="D120" s="56" t="s">
+      <c r="D120" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56" t="s">
+      <c r="E120" s="52"/>
+      <c r="F120" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="56"/>
+      <c r="G120" s="52"/>
       <c r="H120" s="9"/>
       <c r="Q120" s="5"/>
     </row>
@@ -2848,14 +2840,14 @@
         <v>24</v>
       </c>
       <c r="C121" s="28"/>
-      <c r="D121" s="56" t="s">
+      <c r="D121" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E121" s="56"/>
-      <c r="F121" s="57">
+      <c r="E121" s="52"/>
+      <c r="F121" s="53">
         <v>10000000</v>
       </c>
-      <c r="G121" s="57"/>
+      <c r="G121" s="53"/>
       <c r="H121" s="23"/>
       <c r="I121" s="7"/>
       <c r="M121" s="5"/>
@@ -2870,21 +2862,21 @@
         <v>26</v>
       </c>
       <c r="C122" s="28"/>
-      <c r="D122" s="56" t="s">
+      <c r="D122" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="56"/>
-      <c r="F122" s="57">
+      <c r="E122" s="52"/>
+      <c r="F122" s="53">
         <v>20000000</v>
       </c>
-      <c r="G122" s="57"/>
+      <c r="G122" s="53"/>
       <c r="H122" s="23"/>
       <c r="M122" s="9"/>
     </row>
     <row r="123" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
@@ -2919,50 +2911,50 @@
     </row>
     <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="47" t="s">
+      <c r="B126" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
-      <c r="I126" s="47"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="50"/>
       <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="47"/>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="47"/>
-      <c r="I127" s="47"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
     </row>
     <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="47"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
-      <c r="I128" s="47"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="50"/>
+      <c r="I128" s="50"/>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="47"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
-      <c r="I129" s="47"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="H129" s="50"/>
+      <c r="I129" s="50"/>
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,36 +2998,36 @@
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="47" t="s">
+      <c r="B133" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="47"/>
-      <c r="D133" s="47"/>
-      <c r="E133" s="47"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
-      <c r="I133" s="47"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
     </row>
     <row r="134" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="58" t="s">
+      <c r="B135" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="59"/>
-      <c r="D135" s="59"/>
-      <c r="E135" s="60"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="57"/>
       <c r="F135" s="40" t="s">
         <v>96</v>
       </c>
@@ -3046,10 +3038,10 @@
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="61"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="63"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="60"/>
       <c r="F136" s="31"/>
       <c r="G136" s="31"/>
       <c r="H136" s="23"/>
@@ -3057,10 +3049,10 @@
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="62"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="63"/>
+      <c r="B137" s="58"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="60"/>
       <c r="F137" s="31"/>
       <c r="G137" s="31"/>
       <c r="H137" s="23"/>
@@ -3068,10 +3060,10 @@
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="61"/>
-      <c r="C138" s="62"/>
-      <c r="D138" s="62"/>
-      <c r="E138" s="63"/>
+      <c r="B138" s="58"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="59"/>
+      <c r="E138" s="60"/>
       <c r="F138" s="31"/>
       <c r="G138" s="31"/>
       <c r="H138" s="23"/>
@@ -3079,11 +3071,11 @@
     </row>
     <row r="139" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="55" t="s">
+      <c r="C139" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
       <c r="F139" s="41">
         <f>SUM(F136:F138)</f>
         <v>0</v>
@@ -3105,10 +3097,10 @@
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
@@ -3119,38 +3111,38 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="47" t="s">
+      <c r="B142" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C142" s="47"/>
-      <c r="D142" s="47"/>
-      <c r="E142" s="47"/>
-      <c r="F142" s="47"/>
-      <c r="G142" s="47"/>
-      <c r="H142" s="47"/>
-      <c r="I142" s="47"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="50"/>
+      <c r="I142" s="50"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="21"/>
-      <c r="B143" s="47"/>
-      <c r="C143" s="47"/>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47"/>
-      <c r="I143" s="47"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="50"/>
+      <c r="H143" s="50"/>
+      <c r="I143" s="50"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="21"/>
-      <c r="B144" s="47"/>
-      <c r="C144" s="47"/>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
-      <c r="I144" s="47"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="50"/>
+      <c r="I144" s="50"/>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
@@ -3171,7 +3163,7 @@
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -3187,7 +3179,7 @@
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -3196,7 +3188,7 @@
         <v>450</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H147" s="24"/>
     </row>
@@ -3208,10 +3200,10 @@
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
@@ -3220,7 +3212,7 @@
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C150" s="42"/>
       <c r="D150" s="42"/>
@@ -3230,7 +3222,7 @@
       <c r="H150" s="23"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="66"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -3348,11 +3340,11 @@
       <c r="B168" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F168" s="54">
+      <c r="F168" s="61">
         <f ca="1">TODAY()</f>
-        <v>45264</v>
-      </c>
-      <c r="G168" s="54"/>
+        <v>45272</v>
+      </c>
+      <c r="G168" s="61"/>
     </row>
     <row r="169" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="37" t="s">
@@ -3365,607 +3357,607 @@
       <c r="A170" s="8">
         <v>1</v>
       </c>
-      <c r="B170" s="53" t="s">
+      <c r="B170" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C170" s="53"/>
-      <c r="D170" s="53"/>
-      <c r="E170" s="53"/>
-      <c r="F170" s="53"/>
-      <c r="G170" s="53"/>
-      <c r="H170" s="53"/>
-      <c r="I170" s="53"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="48"/>
+      <c r="F170" s="48"/>
+      <c r="G170" s="48"/>
+      <c r="H170" s="48"/>
+      <c r="I170" s="48"/>
     </row>
     <row r="171" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>2</v>
       </c>
-      <c r="B171" s="53" t="s">
+      <c r="B171" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C171" s="53"/>
-      <c r="D171" s="53"/>
-      <c r="E171" s="53"/>
-      <c r="F171" s="53"/>
-      <c r="G171" s="53"/>
-      <c r="H171" s="53"/>
-      <c r="I171" s="53"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="48"/>
+      <c r="F171" s="48"/>
+      <c r="G171" s="48"/>
+      <c r="H171" s="48"/>
+      <c r="I171" s="48"/>
     </row>
     <row r="172" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>3</v>
       </c>
-      <c r="B172" s="53" t="s">
+      <c r="B172" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="53"/>
-      <c r="D172" s="53"/>
-      <c r="E172" s="53"/>
-      <c r="F172" s="53"/>
-      <c r="G172" s="53"/>
-      <c r="H172" s="53"/>
-      <c r="I172" s="53"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="48"/>
+      <c r="F172" s="48"/>
+      <c r="G172" s="48"/>
+      <c r="H172" s="48"/>
+      <c r="I172" s="48"/>
     </row>
     <row r="173" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>4</v>
       </c>
-      <c r="B173" s="53" t="s">
+      <c r="B173" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C173" s="53"/>
-      <c r="D173" s="53"/>
-      <c r="E173" s="53"/>
-      <c r="F173" s="53"/>
-      <c r="G173" s="53"/>
-      <c r="H173" s="53"/>
-      <c r="I173" s="53"/>
+      <c r="C173" s="48"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="48"/>
     </row>
     <row r="174" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>5</v>
       </c>
-      <c r="B174" s="53" t="s">
+      <c r="B174" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C174" s="53"/>
-      <c r="D174" s="53"/>
-      <c r="E174" s="53"/>
-      <c r="F174" s="53"/>
-      <c r="G174" s="53"/>
-      <c r="H174" s="53"/>
-      <c r="I174" s="53"/>
+      <c r="C174" s="48"/>
+      <c r="D174" s="48"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
+      <c r="I174" s="48"/>
     </row>
     <row r="175" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
-      <c r="B175" s="53" t="s">
+      <c r="B175" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="53"/>
-      <c r="D175" s="53"/>
-      <c r="E175" s="53"/>
-      <c r="F175" s="53"/>
-      <c r="G175" s="53"/>
-      <c r="H175" s="53"/>
-      <c r="I175" s="53"/>
+      <c r="C175" s="48"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48"/>
+      <c r="I175" s="48"/>
     </row>
     <row r="176" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
-      <c r="B176" s="53" t="s">
+      <c r="B176" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C176" s="53"/>
-      <c r="D176" s="53"/>
-      <c r="E176" s="53"/>
-      <c r="F176" s="53"/>
-      <c r="G176" s="53"/>
-      <c r="H176" s="53"/>
-      <c r="I176" s="53"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
+      <c r="I176" s="48"/>
     </row>
     <row r="177" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
-      <c r="B177" s="53" t="s">
+      <c r="B177" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="53"/>
-      <c r="F177" s="53"/>
-      <c r="G177" s="53"/>
-      <c r="H177" s="53"/>
-      <c r="I177" s="53"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="48"/>
+      <c r="I177" s="48"/>
     </row>
     <row r="178" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>6</v>
       </c>
-      <c r="B178" s="53" t="s">
+      <c r="B178" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
-      <c r="F178" s="53"/>
-      <c r="G178" s="53"/>
-      <c r="H178" s="53"/>
-      <c r="I178" s="53"/>
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="48"/>
     </row>
     <row r="179" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
-      <c r="B179" s="53" t="s">
+      <c r="B179" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C179" s="53"/>
-      <c r="D179" s="53"/>
-      <c r="E179" s="53"/>
-      <c r="F179" s="53"/>
-      <c r="G179" s="53"/>
-      <c r="H179" s="53"/>
-      <c r="I179" s="53"/>
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="48"/>
+      <c r="I179" s="48"/>
     </row>
     <row r="180" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
-      <c r="B180" s="53" t="s">
+      <c r="B180" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="53"/>
-      <c r="F180" s="53"/>
-      <c r="G180" s="53"/>
-      <c r="H180" s="53"/>
-      <c r="I180" s="53"/>
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="48"/>
+      <c r="I180" s="48"/>
     </row>
     <row r="181" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>7</v>
       </c>
-      <c r="B181" s="53" t="s">
+      <c r="B181" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="53"/>
-      <c r="H181" s="53"/>
-      <c r="I181" s="53"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="48"/>
     </row>
     <row r="182" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>8</v>
       </c>
-      <c r="B182" s="53" t="s">
+      <c r="B182" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C182" s="53"/>
-      <c r="D182" s="53"/>
-      <c r="E182" s="53"/>
-      <c r="F182" s="53"/>
-      <c r="G182" s="53"/>
-      <c r="H182" s="53"/>
-      <c r="I182" s="53"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="48"/>
+      <c r="I182" s="48"/>
     </row>
     <row r="183" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
-      <c r="B183" s="53" t="s">
+      <c r="B183" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C183" s="53"/>
-      <c r="D183" s="53"/>
-      <c r="E183" s="53"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="53"/>
-      <c r="H183" s="53"/>
-      <c r="I183" s="53"/>
+      <c r="C183" s="48"/>
+      <c r="D183" s="48"/>
+      <c r="E183" s="48"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="48"/>
+      <c r="H183" s="48"/>
+      <c r="I183" s="48"/>
     </row>
     <row r="184" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
-      <c r="B184" s="53" t="s">
+      <c r="B184" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C184" s="53"/>
-      <c r="D184" s="53"/>
-      <c r="E184" s="53"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="53"/>
-      <c r="H184" s="53"/>
-      <c r="I184" s="53"/>
+      <c r="C184" s="48"/>
+      <c r="D184" s="48"/>
+      <c r="E184" s="48"/>
+      <c r="F184" s="48"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="48"/>
+      <c r="I184" s="48"/>
     </row>
     <row r="185" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
-      <c r="B185" s="53" t="s">
+      <c r="B185" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="53"/>
-      <c r="D185" s="53"/>
-      <c r="E185" s="53"/>
-      <c r="F185" s="53"/>
-      <c r="G185" s="53"/>
-      <c r="H185" s="53"/>
-      <c r="I185" s="53"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="48"/>
+      <c r="E185" s="48"/>
+      <c r="F185" s="48"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="48"/>
+      <c r="I185" s="48"/>
     </row>
     <row r="186" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
-      <c r="B186" s="53" t="s">
+      <c r="B186" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C186" s="53"/>
-      <c r="D186" s="53"/>
-      <c r="E186" s="53"/>
-      <c r="F186" s="53"/>
-      <c r="G186" s="53"/>
-      <c r="H186" s="53"/>
-      <c r="I186" s="53"/>
+      <c r="C186" s="48"/>
+      <c r="D186" s="48"/>
+      <c r="E186" s="48"/>
+      <c r="F186" s="48"/>
+      <c r="G186" s="48"/>
+      <c r="H186" s="48"/>
+      <c r="I186" s="48"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
-      <c r="B187" s="53" t="s">
+      <c r="B187" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C187" s="53"/>
-      <c r="D187" s="53"/>
-      <c r="E187" s="53"/>
-      <c r="F187" s="53"/>
-      <c r="G187" s="53"/>
-      <c r="H187" s="53"/>
-      <c r="I187" s="53"/>
+      <c r="C187" s="48"/>
+      <c r="D187" s="48"/>
+      <c r="E187" s="48"/>
+      <c r="F187" s="48"/>
+      <c r="G187" s="48"/>
+      <c r="H187" s="48"/>
+      <c r="I187" s="48"/>
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
-      <c r="B188" s="53" t="s">
+      <c r="B188" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C188" s="53"/>
-      <c r="D188" s="53"/>
-      <c r="E188" s="53"/>
-      <c r="F188" s="53"/>
-      <c r="G188" s="53"/>
-      <c r="H188" s="53"/>
-      <c r="I188" s="53"/>
+      <c r="C188" s="48"/>
+      <c r="D188" s="48"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="48"/>
+      <c r="I188" s="48"/>
     </row>
     <row r="189" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>9</v>
       </c>
-      <c r="B189" s="53" t="s">
+      <c r="B189" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C189" s="53"/>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="53"/>
-      <c r="H189" s="53"/>
-      <c r="I189" s="53"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="48"/>
+      <c r="E189" s="48"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="48"/>
+      <c r="H189" s="48"/>
+      <c r="I189" s="48"/>
     </row>
     <row r="190" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>10</v>
       </c>
-      <c r="B190" s="53" t="s">
+      <c r="B190" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C190" s="53"/>
-      <c r="D190" s="53"/>
-      <c r="E190" s="53"/>
-      <c r="F190" s="53"/>
-      <c r="G190" s="53"/>
-      <c r="H190" s="53"/>
-      <c r="I190" s="53"/>
+      <c r="C190" s="48"/>
+      <c r="D190" s="48"/>
+      <c r="E190" s="48"/>
+      <c r="F190" s="48"/>
+      <c r="G190" s="48"/>
+      <c r="H190" s="48"/>
+      <c r="I190" s="48"/>
     </row>
     <row r="191" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
-      <c r="B191" s="53" t="s">
+      <c r="B191" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C191" s="53"/>
-      <c r="D191" s="53"/>
-      <c r="E191" s="53"/>
-      <c r="F191" s="53"/>
-      <c r="G191" s="53"/>
-      <c r="H191" s="53"/>
-      <c r="I191" s="53"/>
+      <c r="C191" s="48"/>
+      <c r="D191" s="48"/>
+      <c r="E191" s="48"/>
+      <c r="F191" s="48"/>
+      <c r="G191" s="48"/>
+      <c r="H191" s="48"/>
+      <c r="I191" s="48"/>
     </row>
     <row r="192" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
-      <c r="B192" s="53" t="s">
+      <c r="B192" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C192" s="53"/>
-      <c r="D192" s="53"/>
-      <c r="E192" s="53"/>
-      <c r="F192" s="53"/>
-      <c r="G192" s="53"/>
-      <c r="H192" s="53"/>
-      <c r="I192" s="53"/>
+      <c r="C192" s="48"/>
+      <c r="D192" s="48"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="48"/>
+      <c r="I192" s="48"/>
     </row>
     <row r="193" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
-      <c r="B193" s="53" t="s">
+      <c r="B193" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="53"/>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
-      <c r="F193" s="53"/>
-      <c r="G193" s="53"/>
-      <c r="H193" s="53"/>
-      <c r="I193" s="53"/>
+      <c r="C193" s="48"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="48"/>
+      <c r="H193" s="48"/>
+      <c r="I193" s="48"/>
     </row>
     <row r="194" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
-      <c r="B194" s="53" t="s">
+      <c r="B194" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C194" s="53"/>
-      <c r="D194" s="53"/>
-      <c r="E194" s="53"/>
-      <c r="F194" s="53"/>
-      <c r="G194" s="53"/>
-      <c r="H194" s="53"/>
-      <c r="I194" s="53"/>
+      <c r="C194" s="48"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="48"/>
+      <c r="H194" s="48"/>
+      <c r="I194" s="48"/>
     </row>
     <row r="195" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>11</v>
       </c>
-      <c r="B195" s="53" t="s">
+      <c r="B195" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C195" s="53"/>
-      <c r="D195" s="53"/>
-      <c r="E195" s="53"/>
-      <c r="F195" s="53"/>
-      <c r="G195" s="53"/>
-      <c r="H195" s="53"/>
-      <c r="I195" s="53"/>
+      <c r="C195" s="48"/>
+      <c r="D195" s="48"/>
+      <c r="E195" s="48"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="48"/>
+      <c r="H195" s="48"/>
+      <c r="I195" s="48"/>
     </row>
     <row r="196" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
-      <c r="B196" s="53" t="s">
+      <c r="B196" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C196" s="53"/>
-      <c r="D196" s="53"/>
-      <c r="E196" s="53"/>
-      <c r="F196" s="53"/>
-      <c r="G196" s="53"/>
-      <c r="H196" s="53"/>
-      <c r="I196" s="53"/>
+      <c r="C196" s="48"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="48"/>
+      <c r="I196" s="48"/>
     </row>
     <row r="197" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
-      <c r="B197" s="53" t="s">
+      <c r="B197" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C197" s="53"/>
-      <c r="D197" s="53"/>
-      <c r="E197" s="53"/>
-      <c r="F197" s="53"/>
-      <c r="G197" s="53"/>
-      <c r="H197" s="53"/>
-      <c r="I197" s="53"/>
+      <c r="C197" s="48"/>
+      <c r="D197" s="48"/>
+      <c r="E197" s="48"/>
+      <c r="F197" s="48"/>
+      <c r="G197" s="48"/>
+      <c r="H197" s="48"/>
+      <c r="I197" s="48"/>
     </row>
     <row r="198" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>12</v>
       </c>
-      <c r="B198" s="53" t="s">
+      <c r="B198" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C198" s="53"/>
-      <c r="D198" s="53"/>
-      <c r="E198" s="53"/>
-      <c r="F198" s="53"/>
-      <c r="G198" s="53"/>
-      <c r="H198" s="53"/>
-      <c r="I198" s="53"/>
+      <c r="C198" s="48"/>
+      <c r="D198" s="48"/>
+      <c r="E198" s="48"/>
+      <c r="F198" s="48"/>
+      <c r="G198" s="48"/>
+      <c r="H198" s="48"/>
+      <c r="I198" s="48"/>
     </row>
     <row r="199" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
-      <c r="B199" s="53" t="s">
+      <c r="B199" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C199" s="53"/>
-      <c r="D199" s="53"/>
-      <c r="E199" s="53"/>
-      <c r="F199" s="53"/>
-      <c r="G199" s="53"/>
-      <c r="H199" s="53"/>
-      <c r="I199" s="53"/>
+      <c r="C199" s="48"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="48"/>
+      <c r="H199" s="48"/>
+      <c r="I199" s="48"/>
     </row>
     <row r="200" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
-      <c r="B200" s="53" t="s">
+      <c r="B200" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C200" s="53"/>
-      <c r="D200" s="53"/>
-      <c r="E200" s="53"/>
-      <c r="F200" s="53"/>
-      <c r="G200" s="53"/>
-      <c r="H200" s="53"/>
-      <c r="I200" s="53"/>
+      <c r="C200" s="48"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="48"/>
+      <c r="G200" s="48"/>
+      <c r="H200" s="48"/>
+      <c r="I200" s="48"/>
     </row>
     <row r="201" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
-      <c r="B201" s="53" t="s">
+      <c r="B201" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C201" s="53"/>
-      <c r="D201" s="53"/>
-      <c r="E201" s="53"/>
-      <c r="F201" s="53"/>
-      <c r="G201" s="53"/>
-      <c r="H201" s="53"/>
-      <c r="I201" s="53"/>
+      <c r="C201" s="48"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="48"/>
+      <c r="F201" s="48"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="48"/>
+      <c r="I201" s="48"/>
     </row>
     <row r="202" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
-      <c r="B202" s="53" t="s">
+      <c r="B202" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C202" s="53"/>
-      <c r="D202" s="53"/>
-      <c r="E202" s="53"/>
-      <c r="F202" s="53"/>
-      <c r="G202" s="53"/>
-      <c r="H202" s="53"/>
-      <c r="I202" s="53"/>
+      <c r="C202" s="48"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="48"/>
+      <c r="F202" s="48"/>
+      <c r="G202" s="48"/>
+      <c r="H202" s="48"/>
+      <c r="I202" s="48"/>
     </row>
     <row r="203" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
         <v>13</v>
       </c>
-      <c r="B203" s="53" t="s">
+      <c r="B203" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C203" s="53"/>
-      <c r="D203" s="53"/>
-      <c r="E203" s="53"/>
-      <c r="F203" s="53"/>
-      <c r="G203" s="53"/>
-      <c r="H203" s="53"/>
-      <c r="I203" s="53"/>
+      <c r="C203" s="48"/>
+      <c r="D203" s="48"/>
+      <c r="E203" s="48"/>
+      <c r="F203" s="48"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="48"/>
+      <c r="I203" s="48"/>
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
-      <c r="B204" s="53" t="s">
+      <c r="B204" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C204" s="53"/>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
-      <c r="F204" s="53"/>
-      <c r="G204" s="53"/>
-      <c r="H204" s="53"/>
-      <c r="I204" s="53"/>
+      <c r="C204" s="48"/>
+      <c r="D204" s="48"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="48"/>
+      <c r="H204" s="48"/>
+      <c r="I204" s="48"/>
     </row>
     <row r="205" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
-      <c r="B205" s="53" t="s">
+      <c r="B205" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C205" s="53"/>
-      <c r="D205" s="53"/>
-      <c r="E205" s="53"/>
-      <c r="F205" s="53"/>
-      <c r="G205" s="53"/>
-      <c r="H205" s="53"/>
-      <c r="I205" s="53"/>
+      <c r="C205" s="48"/>
+      <c r="D205" s="48"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="48"/>
+      <c r="G205" s="48"/>
+      <c r="H205" s="48"/>
+      <c r="I205" s="48"/>
     </row>
     <row r="206" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
         <v>14</v>
       </c>
-      <c r="B206" s="53" t="s">
+      <c r="B206" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C206" s="53"/>
-      <c r="D206" s="53"/>
-      <c r="E206" s="53"/>
-      <c r="F206" s="53"/>
-      <c r="G206" s="53"/>
-      <c r="H206" s="53"/>
-      <c r="I206" s="53"/>
+      <c r="C206" s="48"/>
+      <c r="D206" s="48"/>
+      <c r="E206" s="48"/>
+      <c r="F206" s="48"/>
+      <c r="G206" s="48"/>
+      <c r="H206" s="48"/>
+      <c r="I206" s="48"/>
     </row>
     <row r="207" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
-      <c r="B207" s="53" t="s">
+      <c r="B207" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C207" s="53"/>
-      <c r="D207" s="53"/>
-      <c r="E207" s="53"/>
-      <c r="F207" s="53"/>
-      <c r="G207" s="53"/>
-      <c r="H207" s="53"/>
-      <c r="I207" s="53"/>
+      <c r="C207" s="48"/>
+      <c r="D207" s="48"/>
+      <c r="E207" s="48"/>
+      <c r="F207" s="48"/>
+      <c r="G207" s="48"/>
+      <c r="H207" s="48"/>
+      <c r="I207" s="48"/>
     </row>
     <row r="208" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
-      <c r="B208" s="53" t="s">
+      <c r="B208" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C208" s="53"/>
-      <c r="D208" s="53"/>
-      <c r="E208" s="53"/>
-      <c r="F208" s="53"/>
-      <c r="G208" s="53"/>
-      <c r="H208" s="53"/>
-      <c r="I208" s="53"/>
+      <c r="C208" s="48"/>
+      <c r="D208" s="48"/>
+      <c r="E208" s="48"/>
+      <c r="F208" s="48"/>
+      <c r="G208" s="48"/>
+      <c r="H208" s="48"/>
+      <c r="I208" s="48"/>
     </row>
     <row r="209" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
-      <c r="B209" s="53" t="s">
+      <c r="B209" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C209" s="53"/>
-      <c r="D209" s="53"/>
-      <c r="E209" s="53"/>
-      <c r="F209" s="53"/>
-      <c r="G209" s="53"/>
-      <c r="H209" s="53"/>
-      <c r="I209" s="53"/>
+      <c r="C209" s="48"/>
+      <c r="D209" s="48"/>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="48"/>
+      <c r="H209" s="48"/>
+      <c r="I209" s="48"/>
     </row>
     <row r="210" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
-      <c r="B210" s="53" t="s">
+      <c r="B210" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C210" s="53"/>
-      <c r="D210" s="53"/>
-      <c r="E210" s="53"/>
-      <c r="F210" s="53"/>
-      <c r="G210" s="53"/>
-      <c r="H210" s="53"/>
-      <c r="I210" s="53"/>
+      <c r="C210" s="48"/>
+      <c r="D210" s="48"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="48"/>
+      <c r="H210" s="48"/>
+      <c r="I210" s="48"/>
     </row>
     <row r="211" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
         <v>15</v>
       </c>
-      <c r="B211" s="53" t="s">
+      <c r="B211" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C211" s="53"/>
-      <c r="D211" s="53"/>
-      <c r="E211" s="53"/>
-      <c r="F211" s="53"/>
-      <c r="G211" s="53"/>
-      <c r="H211" s="53"/>
-      <c r="I211" s="53"/>
+      <c r="C211" s="48"/>
+      <c r="D211" s="48"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="48"/>
+      <c r="H211" s="48"/>
+      <c r="I211" s="48"/>
     </row>
     <row r="212" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
         <v>16</v>
       </c>
-      <c r="B212" s="53" t="s">
+      <c r="B212" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C212" s="53"/>
-      <c r="D212" s="53"/>
-      <c r="E212" s="53"/>
-      <c r="F212" s="53"/>
-      <c r="G212" s="53"/>
-      <c r="H212" s="53"/>
-      <c r="I212" s="53"/>
+      <c r="C212" s="48"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="48"/>
+      <c r="H212" s="48"/>
+      <c r="I212" s="48"/>
     </row>
     <row r="213" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
         <v>17</v>
       </c>
-      <c r="B213" s="53" t="s">
+      <c r="B213" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C213" s="53"/>
-      <c r="D213" s="53"/>
-      <c r="E213" s="53"/>
-      <c r="F213" s="53"/>
-      <c r="G213" s="53"/>
-      <c r="H213" s="53"/>
-      <c r="I213" s="53"/>
+      <c r="C213" s="48"/>
+      <c r="D213" s="48"/>
+      <c r="E213" s="48"/>
+      <c r="F213" s="48"/>
+      <c r="G213" s="48"/>
+      <c r="H213" s="48"/>
+      <c r="I213" s="48"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
@@ -3983,7 +3975,75 @@
       <c r="A218" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="84">
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B92:I93"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B86:I89"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B212:I212"/>
+    <mergeCell ref="B201:I201"/>
+    <mergeCell ref="B202:I202"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="B208:I208"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="B211:I211"/>
+    <mergeCell ref="B200:I200"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="B190:I190"/>
+    <mergeCell ref="B191:I191"/>
+    <mergeCell ref="B192:I192"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B194:I194"/>
+    <mergeCell ref="B195:I195"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B197:I197"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="B142:I144"/>
+    <mergeCell ref="B188:I188"/>
+    <mergeCell ref="B175:I175"/>
+    <mergeCell ref="B176:I176"/>
+    <mergeCell ref="B177:I177"/>
+    <mergeCell ref="B178:I178"/>
+    <mergeCell ref="B184:I184"/>
+    <mergeCell ref="B179:I179"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B183:I183"/>
+    <mergeCell ref="B185:I185"/>
+    <mergeCell ref="B186:I186"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="B170:I170"/>
+    <mergeCell ref="B171:I171"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B173:I173"/>
+    <mergeCell ref="B174:I174"/>
     <mergeCell ref="B213:I213"/>
     <mergeCell ref="C139:E139"/>
     <mergeCell ref="B126:I129"/>
@@ -4000,75 +4060,6 @@
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:E137"/>
     <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B170:I170"/>
-    <mergeCell ref="B171:I171"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B173:I173"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="B142:I144"/>
-    <mergeCell ref="B188:I188"/>
-    <mergeCell ref="B175:I175"/>
-    <mergeCell ref="B176:I176"/>
-    <mergeCell ref="B177:I177"/>
-    <mergeCell ref="B178:I178"/>
-    <mergeCell ref="B184:I184"/>
-    <mergeCell ref="B179:I179"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B183:I183"/>
-    <mergeCell ref="B185:I185"/>
-    <mergeCell ref="B186:I186"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="B200:I200"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="B190:I190"/>
-    <mergeCell ref="B191:I191"/>
-    <mergeCell ref="B192:I192"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B194:I194"/>
-    <mergeCell ref="B195:I195"/>
-    <mergeCell ref="B196:I196"/>
-    <mergeCell ref="B197:I197"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="B212:I212"/>
-    <mergeCell ref="B201:I201"/>
-    <mergeCell ref="B202:I202"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B92:I93"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B86:I89"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">

--- a/app/resource/xlsx/fee_proposal_template_1.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026087E4-AD1F-4EDA-86C4-531C3C8065F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD0690-9229-49E4-9324-287B5B298D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ClientCompany">#REF!</definedName>
     <definedName name="MainContactAddress">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fee Proposal'!$A$1:$I$217</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Fee Proposal'!$A$1:$I$214</definedName>
     <definedName name="ProjectName">#REF!</definedName>
     <definedName name="ProjectType">#REF!</definedName>
     <definedName name="QuotationNumber">#REF!</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="142">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>Services</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>Total ex.GST</t>
@@ -400,9 +397,6 @@
   </si>
   <si>
     <t>Note: We also offer optional installation service. Please contact us for further discussion.</t>
-  </si>
-  <si>
-    <t>Receive base building drawings detailing information of air conditioning and ventilation provision</t>
   </si>
   <si>
     <t>6.2</t>
@@ -488,9 +482,6 @@
     <t>Payment is due within 14 days of the date of invoice.</t>
   </si>
   <si>
-    <t>Identify scope of work, air conditioning and ventilation requirements.</t>
-  </si>
-  <si>
     <t>Confirm specific requirements from the base building and other stakeholders</t>
   </si>
   <si>
@@ -498,6 +489,12 @@
   </si>
   <si>
     <t>ATT:</t>
+  </si>
+  <si>
+    <t>Identify scope of work, confirm what items are needed</t>
+  </si>
+  <si>
+    <t>Receive base building drawings detailing information of service provision.</t>
   </si>
 </sst>
 </file>
@@ -703,7 +700,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,17 +821,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -842,9 +863,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -862,24 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -930,7 +930,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>323023</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>16567</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="737151" cy="746051"/>
@@ -1323,10 +1323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96441BBC-02AB-4FA6-8E6A-4E6138E77562}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:X218"/>
+  <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A153" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:XFD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1343,13 +1343,13 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+        <v>107</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1357,10 +1357,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1371,7 +1371,7 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="G3" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1410,15 +1410,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1443,26 +1443,26 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1470,93 +1470,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
+      <c r="A11" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1577,7 +1577,7 @@
       <c r="F16" s="26"/>
       <c r="G16" s="30"/>
       <c r="H16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I16" s="21"/>
     </row>
@@ -1585,16 +1585,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="B17" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
@@ -1603,16 +1603,16 @@
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="B18" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
@@ -1621,16 +1621,16 @@
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="B19" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1645,7 +1645,7 @@
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -1653,7 +1653,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="30"/>
       <c r="H21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I21" s="17"/>
       <c r="K21" s="17"/>
@@ -1666,16 +1666,16 @@
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+      <c r="B22" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1686,32 +1686,32 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
+      <c r="B23" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
+      <c r="B24" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="30"/>
       <c r="H26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="17"/>
     </row>
@@ -1736,46 +1736,46 @@
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
+      <c r="B27" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
+      <c r="B28" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="B29" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
     </row>
@@ -1806,46 +1806,46 @@
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
+      <c r="B32" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
+      <c r="B33" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
+      <c r="B34" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2011,22 +2011,16 @@
       <c r="I52" s="44"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="21"/>
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="str">
-        <f t="shared" ref="A54:A66" si="0">IF(B54&lt;&gt;"","•","")</f>
-        <v/>
-      </c>
+      <c r="A54" s="21"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A55" s="21"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2036,139 +2030,106 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A56" s="21"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A57" s="21"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A58" s="21"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A59" s="21"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A60" s="21"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A61" s="21"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A62" s="21"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A63" s="21"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A64" s="21"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A65" s="21"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A66" s="21"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="21"/>
       <c r="C67" s="3"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="44"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2176,55 +2137,43 @@
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="str">
-        <f t="shared" ref="A69:A74" si="1">IF(B69&lt;&gt;"","•","")</f>
-        <v/>
-      </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="A69" s="21"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="21"/>
       <c r="C71" s="3"/>
       <c r="I71" s="44"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A72" s="21"/>
       <c r="C72" s="3"/>
       <c r="I72" s="44"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A73" s="21"/>
       <c r="C73" s="3"/>
       <c r="I73" s="44"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A74" s="21"/>
       <c r="C74" s="3"/>
       <c r="I74" s="44"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="21"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,10 +2190,7 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="str">
-        <f t="shared" ref="A77:A82" si="2">IF(B77&lt;&gt;"","•","")</f>
-        <v/>
-      </c>
+      <c r="A77" s="21"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
@@ -2254,10 +2200,7 @@
       <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="A78" s="21"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
@@ -2267,10 +2210,7 @@
       <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="A79" s="21"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
@@ -2280,10 +2220,7 @@
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="A80" s="21"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
@@ -2293,10 +2230,7 @@
       <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="A81" s="21"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
@@ -2306,10 +2240,7 @@
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="A82" s="21"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
@@ -2319,21 +2250,21 @@
       <c r="I82" s="20"/>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
@@ -2344,10 +2275,10 @@
     </row>
     <row r="85" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -2358,49 +2289,49 @@
     </row>
     <row r="86" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
-      <c r="B86" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="50"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
+      <c r="B86" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
     </row>
     <row r="87" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50"/>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="50"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
     </row>
     <row r="89" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
     </row>
     <row r="90" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33"/>
@@ -2417,7 +2348,7 @@
         <v>3.2</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
@@ -2428,34 +2359,34 @@
     </row>
     <row r="92" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33"/>
-      <c r="B92" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50"/>
+      <c r="B92" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
     </row>
     <row r="93" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
     </row>
     <row r="94" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
@@ -2469,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
@@ -2483,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -2527,7 +2458,7 @@
         <v>3.3</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
@@ -2538,21 +2469,21 @@
     </row>
     <row r="101" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="45"/>
-      <c r="B101" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
+      <c r="B101" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
       <c r="Q101" s="34"/>
     </row>
     <row r="102" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="str">
-        <f t="shared" ref="A102:A111" si="3">IF(B102&lt;&gt;"","•","")</f>
+        <f t="shared" ref="A102:A111" si="0">IF(B102&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="B102" s="5" t="str" cm="1">
@@ -2567,7 +2498,7 @@
     </row>
     <row r="103" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B103" s="5" t="str" cm="1">
@@ -2582,7 +2513,7 @@
     </row>
     <row r="104" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B104" s="5" t="str" cm="1">
@@ -2598,7 +2529,7 @@
     </row>
     <row r="105" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B105" s="5" t="str" cm="1">
@@ -2613,7 +2544,7 @@
     </row>
     <row r="106" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B106" s="5" t="str" cm="1">
@@ -2628,7 +2559,7 @@
     </row>
     <row r="107" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B107" s="5" t="str" cm="1">
@@ -2644,7 +2575,7 @@
     </row>
     <row r="108" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B108" s="5" t="str" cm="1">
@@ -2659,7 +2590,7 @@
     </row>
     <row r="109" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B109" s="5" t="str" cm="1">
@@ -2670,7 +2601,7 @@
     </row>
     <row r="110" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B110" s="5" t="str" cm="1">
@@ -2685,7 +2616,7 @@
     </row>
     <row r="111" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B111" s="5" t="str" cm="1">
@@ -2713,7 +2644,7 @@
         <v>3.4</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M113" s="5" t="str">
         <f t="array" ref="M113">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
@@ -2726,16 +2657,16 @@
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45"/>
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="50"/>
       <c r="M114" s="7"/>
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
@@ -2748,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="E115" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M115" s="12"/>
       <c r="N115" s="7"/>
@@ -2804,16 +2735,16 @@
     </row>
     <row r="119" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="46"/>
-      <c r="B119" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
+      <c r="B119" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="53"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53"/>
+      <c r="G119" s="53"/>
+      <c r="H119" s="53"/>
+      <c r="I119" s="53"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
@@ -2823,14 +2754,14 @@
         <v>28</v>
       </c>
       <c r="C120" s="28"/>
-      <c r="D120" s="52" t="s">
+      <c r="D120" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52" t="s">
+      <c r="E120" s="60"/>
+      <c r="F120" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="52"/>
+      <c r="G120" s="60"/>
       <c r="H120" s="9"/>
       <c r="Q120" s="5"/>
     </row>
@@ -2840,14 +2771,14 @@
         <v>24</v>
       </c>
       <c r="C121" s="28"/>
-      <c r="D121" s="52" t="s">
+      <c r="D121" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E121" s="52"/>
-      <c r="F121" s="53">
+      <c r="E121" s="60"/>
+      <c r="F121" s="61">
         <v>10000000</v>
       </c>
-      <c r="G121" s="53"/>
+      <c r="G121" s="61"/>
       <c r="H121" s="23"/>
       <c r="I121" s="7"/>
       <c r="M121" s="5"/>
@@ -2862,21 +2793,21 @@
         <v>26</v>
       </c>
       <c r="C122" s="28"/>
-      <c r="D122" s="52" t="s">
+      <c r="D122" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="52"/>
-      <c r="F122" s="53">
+      <c r="E122" s="60"/>
+      <c r="F122" s="61">
         <v>20000000</v>
       </c>
-      <c r="G122" s="53"/>
+      <c r="G122" s="61"/>
       <c r="H122" s="23"/>
       <c r="M122" s="9"/>
     </row>
     <row r="123" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C123" s="12"/>
       <c r="D123" s="12"/>
@@ -2900,7 +2831,7 @@
     </row>
     <row r="125" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B125" s="34" t="s">
         <v>7</v>
@@ -2911,50 +2842,50 @@
     </row>
     <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
-      <c r="B126" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
-      <c r="I126" s="50"/>
+      <c r="B126" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="51"/>
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
+      <c r="F126" s="51"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
+      <c r="I126" s="51"/>
       <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="50"/>
-      <c r="I127" s="50"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="51"/>
     </row>
     <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="50"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="50"/>
-      <c r="F128" s="50"/>
-      <c r="G128" s="50"/>
-      <c r="H128" s="50"/>
-      <c r="I128" s="50"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="51"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="50"/>
-      <c r="D129" s="50"/>
-      <c r="E129" s="50"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="50"/>
-      <c r="I129" s="50"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="51"/>
+      <c r="H129" s="51"/>
+      <c r="I129" s="51"/>
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2998,966 +2929,938 @@
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="50" t="s">
+      <c r="B133" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="50"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="50"/>
-      <c r="I133" s="50"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="51"/>
+      <c r="H133" s="51"/>
+      <c r="I133" s="51"/>
     </row>
     <row r="134" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="50"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="50"/>
-      <c r="I134" s="50"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="51"/>
+      <c r="I134" s="51"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="55" t="s">
+      <c r="B135" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="56"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="57"/>
+      <c r="C135" s="63"/>
+      <c r="D135" s="63"/>
+      <c r="E135" s="64"/>
       <c r="F135" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G135" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="G135" s="40" t="s">
-        <v>97</v>
       </c>
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
-      <c r="B136" s="58"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="60"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="67"/>
       <c r="F136" s="31"/>
       <c r="G136" s="31"/>
       <c r="H136" s="23"/>
       <c r="I136" s="7"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="58"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="59"/>
-      <c r="E137" s="60"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
+      <c r="B137" s="48"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
       <c r="H137" s="23"/>
       <c r="I137" s="7"/>
     </row>
-    <row r="138" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="58"/>
-      <c r="C138" s="59"/>
-      <c r="D138" s="59"/>
-      <c r="E138" s="60"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
+    <row r="138" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
       <c r="H138" s="23"/>
-      <c r="I138" s="7"/>
-    </row>
-    <row r="139" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="C139" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="41">
-        <f>SUM(F136:F138)</f>
-        <v>0</v>
-      </c>
-      <c r="G139" s="41">
-        <f>SUM(G136:G138)</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="23"/>
+      <c r="B139" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="51"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="51"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="42"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="41"/>
-      <c r="G140" s="41"/>
-      <c r="H140" s="23"/>
-    </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="22"/>
-      <c r="G141" s="22"/>
-      <c r="H141" s="23"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="21"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" s="21"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="51"/>
+      <c r="I141" s="51"/>
+    </row>
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="C142" s="50"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="50"/>
-      <c r="I142" s="50"/>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="25">
+        <v>280</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" s="24"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="21"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="50"/>
-      <c r="I143" s="50"/>
+      <c r="A143" s="1"/>
+      <c r="B143" t="s">
+        <v>132</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="25">
+        <v>150</v>
+      </c>
+      <c r="F143" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143" s="24"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="21"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
-      <c r="G144" s="50"/>
-      <c r="H144" s="50"/>
-      <c r="I144" s="50"/>
-    </row>
-    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="25">
+        <v>450</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H144" s="24"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-      <c r="B145" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="25">
-        <v>280</v>
-      </c>
-      <c r="F145" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
       <c r="H145" s="24"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" t="s">
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D146" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="25">
-        <v>150</v>
-      </c>
-      <c r="F146" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="B146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
       <c r="H146" s="24"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-      <c r="B147" t="s">
-        <v>135</v>
-      </c>
-      <c r="D147" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="25">
-        <v>450</v>
-      </c>
-      <c r="F147" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H147" s="24"/>
+      <c r="B147" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="23"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="H148" s="24"/>
-    </row>
-    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="H149" s="24"/>
+      <c r="A148" s="47"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+    </row>
+    <row r="149" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B149" s="34" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C150" s="42"/>
-      <c r="D150" s="42"/>
-      <c r="E150" s="42"/>
-      <c r="F150" s="41"/>
-      <c r="G150" s="41"/>
-      <c r="H150" s="23"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="47"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-    </row>
-    <row r="152" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B152" s="34" t="s">
-        <v>43</v>
+      <c r="A151" s="21"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F152" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="21"/>
-      <c r="B153" s="2"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="12"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="21"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1" t="s">
-        <v>16</v>
+      <c r="A154" s="1"/>
+      <c r="B154" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-      <c r="B155" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="B155" s="12"/>
       <c r="F155" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="12"/>
+      <c r="F156" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
-      <c r="B157" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="B157" s="12"/>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="12"/>
-      <c r="F158" t="s">
-        <v>9</v>
+      <c r="F158" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="12"/>
       <c r="F159" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
-      <c r="B160" s="12"/>
-      <c r="F160" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-      <c r="B161" s="12"/>
-      <c r="F161" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="10"/>
+    </row>
+    <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
-      <c r="B162" s="12"/>
-      <c r="F162" t="s">
-        <v>34</v>
-      </c>
+      <c r="B162" s="10"/>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-      <c r="B163" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="B163" s="10"/>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-      <c r="B165" s="10"/>
-    </row>
-    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="10"/>
-    </row>
-    <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="10"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="10" t="s">
+      <c r="B165" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F168" s="61">
+      <c r="F165" s="59">
         <f ca="1">TODAY()</f>
-        <v>45272</v>
-      </c>
-      <c r="G168" s="61"/>
-    </row>
-    <row r="169" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="37" t="s">
+        <v>45320</v>
+      </c>
+      <c r="G165" s="59"/>
+    </row>
+    <row r="166" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C169" s="6"/>
-      <c r="I169" s="21"/>
-    </row>
-    <row r="170" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="6"/>
+      <c r="I166" s="21"/>
+    </row>
+    <row r="167" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8">
+        <v>1</v>
+      </c>
+      <c r="B167" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" s="58"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="58"/>
+      <c r="G167" s="58"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="58"/>
+    </row>
+    <row r="168" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8">
+        <v>2</v>
+      </c>
+      <c r="B168" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C168" s="58"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="58"/>
+      <c r="F168" s="58"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="58"/>
+    </row>
+    <row r="169" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8">
+        <v>3</v>
+      </c>
+      <c r="B169" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C169" s="58"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
+      <c r="G169" s="58"/>
+      <c r="H169" s="58"/>
+      <c r="I169" s="58"/>
+    </row>
+    <row r="170" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
-        <v>1</v>
-      </c>
-      <c r="B170" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C170" s="48"/>
-      <c r="D170" s="48"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="48"/>
-      <c r="I170" s="48"/>
-    </row>
-    <row r="171" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B170" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170" s="58"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="58"/>
+      <c r="F170" s="58"/>
+      <c r="G170" s="58"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="58"/>
+    </row>
+    <row r="171" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
-        <v>2</v>
-      </c>
-      <c r="B171" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="48"/>
-      <c r="F171" s="48"/>
-      <c r="G171" s="48"/>
-      <c r="H171" s="48"/>
-      <c r="I171" s="48"/>
-    </row>
-    <row r="172" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8">
-        <v>3</v>
-      </c>
-      <c r="B172" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48"/>
-      <c r="E172" s="48"/>
-      <c r="F172" s="48"/>
-      <c r="G172" s="48"/>
-      <c r="H172" s="48"/>
-      <c r="I172" s="48"/>
-    </row>
-    <row r="173" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8">
-        <v>4</v>
-      </c>
-      <c r="B173" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48"/>
-      <c r="E173" s="48"/>
-      <c r="F173" s="48"/>
-      <c r="G173" s="48"/>
-      <c r="H173" s="48"/>
-      <c r="I173" s="48"/>
-    </row>
-    <row r="174" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8">
         <v>5</v>
       </c>
-      <c r="B174" s="48" t="s">
+      <c r="B171" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C174" s="48"/>
-      <c r="D174" s="48"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="48"/>
-      <c r="G174" s="48"/>
-      <c r="H174" s="48"/>
-      <c r="I174" s="48"/>
-    </row>
-    <row r="175" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8"/>
-      <c r="B175" s="48" t="s">
+      <c r="C171" s="58"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="58"/>
+      <c r="F171" s="58"/>
+      <c r="G171" s="58"/>
+      <c r="H171" s="58"/>
+      <c r="I171" s="58"/>
+    </row>
+    <row r="172" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="8"/>
+      <c r="B172" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48"/>
-      <c r="E175" s="48"/>
-      <c r="F175" s="48"/>
-      <c r="G175" s="48"/>
-      <c r="H175" s="48"/>
-      <c r="I175" s="48"/>
-    </row>
-    <row r="176" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="58"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="58"/>
+      <c r="F172" s="58"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="58"/>
+      <c r="I172" s="58"/>
+    </row>
+    <row r="173" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="8"/>
+      <c r="B173" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" s="58"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="58"/>
+      <c r="F173" s="58"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="58"/>
+    </row>
+    <row r="174" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="8"/>
+      <c r="B174" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" s="58"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="58"/>
+    </row>
+    <row r="175" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="8">
+        <v>6</v>
+      </c>
+      <c r="B175" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C175" s="58"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="58"/>
+    </row>
+    <row r="176" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
-      <c r="B176" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48"/>
-      <c r="G176" s="48"/>
-      <c r="H176" s="48"/>
-      <c r="I176" s="48"/>
+      <c r="B176" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="58"/>
     </row>
     <row r="177" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
-      <c r="B177" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="48"/>
-      <c r="F177" s="48"/>
-      <c r="G177" s="48"/>
-      <c r="H177" s="48"/>
-      <c r="I177" s="48"/>
-    </row>
-    <row r="178" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C177" s="58"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="58"/>
+      <c r="F177" s="58"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="58"/>
+    </row>
+    <row r="178" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
-        <v>6</v>
-      </c>
-      <c r="B178" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
-      <c r="G178" s="48"/>
-      <c r="H178" s="48"/>
-      <c r="I178" s="48"/>
-    </row>
-    <row r="179" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
-      <c r="B179" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C179" s="48"/>
-      <c r="D179" s="48"/>
-      <c r="E179" s="48"/>
-      <c r="F179" s="48"/>
-      <c r="G179" s="48"/>
-      <c r="H179" s="48"/>
-      <c r="I179" s="48"/>
-    </row>
-    <row r="180" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B178" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C178" s="58"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="58"/>
+      <c r="F178" s="58"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
+    </row>
+    <row r="179" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="8">
+        <v>8</v>
+      </c>
+      <c r="B179" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C179" s="58"/>
+      <c r="D179" s="58"/>
+      <c r="E179" s="58"/>
+      <c r="F179" s="58"/>
+      <c r="G179" s="58"/>
+      <c r="H179" s="58"/>
+      <c r="I179" s="58"/>
+    </row>
+    <row r="180" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
-      <c r="B180" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="48"/>
-      <c r="G180" s="48"/>
-      <c r="H180" s="48"/>
-      <c r="I180" s="48"/>
-    </row>
-    <row r="181" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8">
-        <v>7</v>
-      </c>
-      <c r="B181" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="48"/>
-      <c r="I181" s="48"/>
-    </row>
-    <row r="182" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8">
-        <v>8</v>
-      </c>
-      <c r="B182" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C182" s="48"/>
-      <c r="D182" s="48"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="48"/>
-      <c r="G182" s="48"/>
-      <c r="H182" s="48"/>
-      <c r="I182" s="48"/>
-    </row>
-    <row r="183" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C180" s="58"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="58"/>
+      <c r="F180" s="58"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="58"/>
+      <c r="I180" s="58"/>
+    </row>
+    <row r="181" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="8"/>
+      <c r="B181" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" s="58"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="58"/>
+    </row>
+    <row r="182" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="8"/>
+      <c r="B182" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C182" s="58"/>
+      <c r="D182" s="58"/>
+      <c r="E182" s="58"/>
+      <c r="F182" s="58"/>
+      <c r="G182" s="58"/>
+      <c r="H182" s="58"/>
+      <c r="I182" s="58"/>
+    </row>
+    <row r="183" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
-      <c r="B183" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C183" s="48"/>
-      <c r="D183" s="48"/>
-      <c r="E183" s="48"/>
-      <c r="F183" s="48"/>
-      <c r="G183" s="48"/>
-      <c r="H183" s="48"/>
-      <c r="I183" s="48"/>
-    </row>
-    <row r="184" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C183" s="58"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="58"/>
+      <c r="G183" s="58"/>
+      <c r="H183" s="58"/>
+      <c r="I183" s="58"/>
+    </row>
+    <row r="184" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
-      <c r="B184" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C184" s="48"/>
-      <c r="D184" s="48"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="48"/>
-      <c r="G184" s="48"/>
-      <c r="H184" s="48"/>
-      <c r="I184" s="48"/>
-    </row>
-    <row r="185" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C184" s="58"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="58"/>
+      <c r="F184" s="58"/>
+      <c r="G184" s="58"/>
+      <c r="H184" s="58"/>
+      <c r="I184" s="58"/>
+    </row>
+    <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
-      <c r="B185" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C185" s="48"/>
-      <c r="D185" s="48"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="48"/>
-      <c r="G185" s="48"/>
-      <c r="H185" s="48"/>
-      <c r="I185" s="48"/>
-    </row>
-    <row r="186" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
-      <c r="B186" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C186" s="48"/>
-      <c r="D186" s="48"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
-      <c r="G186" s="48"/>
-      <c r="H186" s="48"/>
-      <c r="I186" s="48"/>
-    </row>
-    <row r="187" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
-      <c r="B187" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C187" s="48"/>
-      <c r="D187" s="48"/>
-      <c r="E187" s="48"/>
-      <c r="F187" s="48"/>
-      <c r="G187" s="48"/>
-      <c r="H187" s="48"/>
-      <c r="I187" s="48"/>
-    </row>
-    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C185" s="58"/>
+      <c r="D185" s="58"/>
+      <c r="E185" s="58"/>
+      <c r="F185" s="58"/>
+      <c r="G185" s="58"/>
+      <c r="H185" s="58"/>
+      <c r="I185" s="58"/>
+    </row>
+    <row r="186" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="8">
+        <v>9</v>
+      </c>
+      <c r="B186" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C186" s="58"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+    </row>
+    <row r="187" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="8">
+        <v>10</v>
+      </c>
+      <c r="B187" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C187" s="58"/>
+      <c r="D187" s="58"/>
+      <c r="E187" s="58"/>
+      <c r="F187" s="58"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="58"/>
+      <c r="I187" s="58"/>
+    </row>
+    <row r="188" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
-      <c r="B188" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C188" s="48"/>
-      <c r="D188" s="48"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="48"/>
-      <c r="G188" s="48"/>
-      <c r="H188" s="48"/>
-      <c r="I188" s="48"/>
-    </row>
-    <row r="189" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8">
-        <v>9</v>
-      </c>
-      <c r="B189" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C189" s="48"/>
-      <c r="D189" s="48"/>
-      <c r="E189" s="48"/>
-      <c r="F189" s="48"/>
-      <c r="G189" s="48"/>
-      <c r="H189" s="48"/>
-      <c r="I189" s="48"/>
-    </row>
-    <row r="190" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8">
-        <v>10</v>
-      </c>
-      <c r="B190" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C190" s="48"/>
-      <c r="D190" s="48"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="48"/>
-      <c r="G190" s="48"/>
-      <c r="H190" s="48"/>
-      <c r="I190" s="48"/>
-    </row>
-    <row r="191" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C188" s="58"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="58"/>
+      <c r="F188" s="58"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="58"/>
+    </row>
+    <row r="189" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="8"/>
+      <c r="B189" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" s="58"/>
+      <c r="D189" s="58"/>
+      <c r="E189" s="58"/>
+      <c r="F189" s="58"/>
+      <c r="G189" s="58"/>
+      <c r="H189" s="58"/>
+      <c r="I189" s="58"/>
+    </row>
+    <row r="190" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="8"/>
+      <c r="B190" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C190" s="58"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="58"/>
+    </row>
+    <row r="191" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
-      <c r="B191" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C191" s="48"/>
-      <c r="D191" s="48"/>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48"/>
-      <c r="G191" s="48"/>
-      <c r="H191" s="48"/>
-      <c r="I191" s="48"/>
-    </row>
-    <row r="192" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
-      <c r="B192" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C192" s="48"/>
-      <c r="D192" s="48"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="48"/>
-      <c r="H192" s="48"/>
-      <c r="I192" s="48"/>
+      <c r="B191" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C191" s="58"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="58"/>
+    </row>
+    <row r="192" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="8">
+        <v>11</v>
+      </c>
+      <c r="B192" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C192" s="58"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="58"/>
+      <c r="F192" s="58"/>
+      <c r="G192" s="58"/>
+      <c r="H192" s="58"/>
+      <c r="I192" s="58"/>
     </row>
     <row r="193" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
-      <c r="B193" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C193" s="48"/>
-      <c r="D193" s="48"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="48"/>
-      <c r="H193" s="48"/>
-      <c r="I193" s="48"/>
-    </row>
-    <row r="194" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C193" s="58"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="58"/>
+      <c r="F193" s="58"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="58"/>
+      <c r="I193" s="58"/>
+    </row>
+    <row r="194" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
-      <c r="B194" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C194" s="48"/>
-      <c r="D194" s="48"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
-      <c r="G194" s="48"/>
-      <c r="H194" s="48"/>
-      <c r="I194" s="48"/>
-    </row>
-    <row r="195" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C194" s="58"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="58"/>
+      <c r="F194" s="58"/>
+      <c r="G194" s="58"/>
+      <c r="H194" s="58"/>
+      <c r="I194" s="58"/>
+    </row>
+    <row r="195" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
-        <v>11</v>
-      </c>
-      <c r="B195" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C195" s="48"/>
-      <c r="D195" s="48"/>
-      <c r="E195" s="48"/>
-      <c r="F195" s="48"/>
-      <c r="G195" s="48"/>
-      <c r="H195" s="48"/>
-      <c r="I195" s="48"/>
-    </row>
-    <row r="196" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B195" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C195" s="58"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="58"/>
+      <c r="I195" s="58"/>
+    </row>
+    <row r="196" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
-      <c r="B196" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C196" s="48"/>
-      <c r="D196" s="48"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="48"/>
-      <c r="G196" s="48"/>
-      <c r="H196" s="48"/>
-      <c r="I196" s="48"/>
-    </row>
-    <row r="197" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C196" s="58"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="58"/>
+    </row>
+    <row r="197" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
-      <c r="B197" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C197" s="48"/>
-      <c r="D197" s="48"/>
-      <c r="E197" s="48"/>
-      <c r="F197" s="48"/>
-      <c r="G197" s="48"/>
-      <c r="H197" s="48"/>
-      <c r="I197" s="48"/>
-    </row>
-    <row r="198" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8">
-        <v>12</v>
-      </c>
-      <c r="B198" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C198" s="48"/>
-      <c r="D198" s="48"/>
-      <c r="E198" s="48"/>
-      <c r="F198" s="48"/>
-      <c r="G198" s="48"/>
-      <c r="H198" s="48"/>
-      <c r="I198" s="48"/>
-    </row>
-    <row r="199" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C197" s="58"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="58"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="58"/>
+      <c r="I197" s="58"/>
+    </row>
+    <row r="198" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="8"/>
+      <c r="B198" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C198" s="58"/>
+      <c r="D198" s="58"/>
+      <c r="E198" s="58"/>
+      <c r="F198" s="58"/>
+      <c r="G198" s="58"/>
+      <c r="H198" s="58"/>
+      <c r="I198" s="58"/>
+    </row>
+    <row r="199" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
-      <c r="B199" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C199" s="48"/>
-      <c r="D199" s="48"/>
-      <c r="E199" s="48"/>
-      <c r="F199" s="48"/>
-      <c r="G199" s="48"/>
-      <c r="H199" s="48"/>
-      <c r="I199" s="48"/>
-    </row>
-    <row r="200" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8"/>
-      <c r="B200" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C200" s="48"/>
-      <c r="D200" s="48"/>
-      <c r="E200" s="48"/>
-      <c r="F200" s="48"/>
-      <c r="G200" s="48"/>
-      <c r="H200" s="48"/>
-      <c r="I200" s="48"/>
-    </row>
-    <row r="201" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C199" s="58"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="58"/>
+      <c r="G199" s="58"/>
+      <c r="H199" s="58"/>
+      <c r="I199" s="58"/>
+    </row>
+    <row r="200" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="8">
+        <v>13</v>
+      </c>
+      <c r="B200" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C200" s="58"/>
+      <c r="D200" s="58"/>
+      <c r="E200" s="58"/>
+      <c r="F200" s="58"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="58"/>
+      <c r="I200" s="58"/>
+    </row>
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
-      <c r="B201" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C201" s="48"/>
-      <c r="D201" s="48"/>
-      <c r="E201" s="48"/>
-      <c r="F201" s="48"/>
-      <c r="G201" s="48"/>
-      <c r="H201" s="48"/>
-      <c r="I201" s="48"/>
-    </row>
-    <row r="202" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C201" s="58"/>
+      <c r="D201" s="58"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="58"/>
+      <c r="G201" s="58"/>
+      <c r="H201" s="58"/>
+      <c r="I201" s="58"/>
+    </row>
+    <row r="202" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
-      <c r="B202" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C202" s="48"/>
-      <c r="D202" s="48"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="48"/>
-      <c r="G202" s="48"/>
-      <c r="H202" s="48"/>
-      <c r="I202" s="48"/>
-    </row>
-    <row r="203" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C202" s="58"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="58"/>
+      <c r="G202" s="58"/>
+      <c r="H202" s="58"/>
+      <c r="I202" s="58"/>
+    </row>
+    <row r="203" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8">
-        <v>13</v>
-      </c>
-      <c r="B203" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C203" s="48"/>
-      <c r="D203" s="48"/>
-      <c r="E203" s="48"/>
-      <c r="F203" s="48"/>
-      <c r="G203" s="48"/>
-      <c r="H203" s="48"/>
-      <c r="I203" s="48"/>
-    </row>
-    <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B203" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C203" s="58"/>
+      <c r="D203" s="58"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="58"/>
+      <c r="G203" s="58"/>
+      <c r="H203" s="58"/>
+      <c r="I203" s="58"/>
+    </row>
+    <row r="204" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
-      <c r="B204" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="C204" s="48"/>
-      <c r="D204" s="48"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="48"/>
-      <c r="G204" s="48"/>
-      <c r="H204" s="48"/>
-      <c r="I204" s="48"/>
-    </row>
-    <row r="205" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C204" s="58"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="58"/>
+      <c r="G204" s="58"/>
+      <c r="H204" s="58"/>
+      <c r="I204" s="58"/>
+    </row>
+    <row r="205" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
-      <c r="B205" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C205" s="48"/>
-      <c r="D205" s="48"/>
-      <c r="E205" s="48"/>
-      <c r="F205" s="48"/>
-      <c r="G205" s="48"/>
-      <c r="H205" s="48"/>
-      <c r="I205" s="48"/>
-    </row>
-    <row r="206" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8">
-        <v>14</v>
-      </c>
-      <c r="B206" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C206" s="48"/>
-      <c r="D206" s="48"/>
-      <c r="E206" s="48"/>
-      <c r="F206" s="48"/>
-      <c r="G206" s="48"/>
-      <c r="H206" s="48"/>
-      <c r="I206" s="48"/>
-    </row>
-    <row r="207" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="58"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="58"/>
+      <c r="F205" s="58"/>
+      <c r="G205" s="58"/>
+      <c r="H205" s="58"/>
+      <c r="I205" s="58"/>
+    </row>
+    <row r="206" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="8"/>
+      <c r="B206" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C206" s="58"/>
+      <c r="D206" s="58"/>
+      <c r="E206" s="58"/>
+      <c r="F206" s="58"/>
+      <c r="G206" s="58"/>
+      <c r="H206" s="58"/>
+      <c r="I206" s="58"/>
+    </row>
+    <row r="207" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
-      <c r="B207" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C207" s="48"/>
-      <c r="D207" s="48"/>
-      <c r="E207" s="48"/>
-      <c r="F207" s="48"/>
-      <c r="G207" s="48"/>
-      <c r="H207" s="48"/>
-      <c r="I207" s="48"/>
-    </row>
-    <row r="208" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8"/>
-      <c r="B208" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C208" s="48"/>
-      <c r="D208" s="48"/>
-      <c r="E208" s="48"/>
-      <c r="F208" s="48"/>
-      <c r="G208" s="48"/>
-      <c r="H208" s="48"/>
-      <c r="I208" s="48"/>
-    </row>
-    <row r="209" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="B209" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C209" s="48"/>
-      <c r="D209" s="48"/>
-      <c r="E209" s="48"/>
-      <c r="F209" s="48"/>
-      <c r="G209" s="48"/>
-      <c r="H209" s="48"/>
-      <c r="I209" s="48"/>
-    </row>
-    <row r="210" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="48" t="s">
+      <c r="B207" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C210" s="48"/>
-      <c r="D210" s="48"/>
-      <c r="E210" s="48"/>
-      <c r="F210" s="48"/>
-      <c r="G210" s="48"/>
-      <c r="H210" s="48"/>
-      <c r="I210" s="48"/>
-    </row>
-    <row r="211" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="8">
+      <c r="C207" s="58"/>
+      <c r="D207" s="58"/>
+      <c r="E207" s="58"/>
+      <c r="F207" s="58"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="58"/>
+      <c r="I207" s="58"/>
+    </row>
+    <row r="208" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="8">
         <v>15</v>
       </c>
-      <c r="B211" s="48" t="s">
+      <c r="B208" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="C211" s="48"/>
-      <c r="D211" s="48"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="48"/>
-      <c r="G211" s="48"/>
-      <c r="H211" s="48"/>
-      <c r="I211" s="48"/>
-    </row>
-    <row r="212" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="8">
+      <c r="C208" s="58"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="58"/>
+    </row>
+    <row r="209" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="8">
         <v>16</v>
       </c>
-      <c r="B212" s="48" t="s">
+      <c r="B209" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C212" s="48"/>
-      <c r="D212" s="48"/>
-      <c r="E212" s="48"/>
-      <c r="F212" s="48"/>
-      <c r="G212" s="48"/>
-      <c r="H212" s="48"/>
-      <c r="I212" s="48"/>
-    </row>
-    <row r="213" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="8">
+      <c r="C209" s="58"/>
+      <c r="D209" s="58"/>
+      <c r="E209" s="58"/>
+      <c r="F209" s="58"/>
+      <c r="G209" s="58"/>
+      <c r="H209" s="58"/>
+      <c r="I209" s="58"/>
+    </row>
+    <row r="210" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="8">
         <v>17</v>
       </c>
-      <c r="B213" s="48" t="s">
+      <c r="B210" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C213" s="48"/>
-      <c r="D213" s="48"/>
-      <c r="E213" s="48"/>
-      <c r="F213" s="48"/>
-      <c r="G213" s="48"/>
-      <c r="H213" s="48"/>
-      <c r="I213" s="48"/>
+      <c r="C210" s="58"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="58"/>
+      <c r="G210" s="58"/>
+      <c r="H210" s="58"/>
+      <c r="I210" s="58"/>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="27"/>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="27"/>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="27"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="27"/>
@@ -3965,19 +3868,73 @@
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="27"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="27"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="27"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="27"/>
-    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="81">
+    <mergeCell ref="B210:I210"/>
+    <mergeCell ref="B126:I129"/>
+    <mergeCell ref="B114:I114"/>
+    <mergeCell ref="B133:I134"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B167:I167"/>
+    <mergeCell ref="B168:I168"/>
+    <mergeCell ref="B169:I169"/>
+    <mergeCell ref="B170:I170"/>
+    <mergeCell ref="B171:I171"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="B139:I141"/>
+    <mergeCell ref="B185:I185"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B173:I173"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B175:I175"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B176:I176"/>
+    <mergeCell ref="B177:I177"/>
+    <mergeCell ref="B178:I178"/>
+    <mergeCell ref="B179:I179"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="B182:I182"/>
+    <mergeCell ref="B183:I183"/>
+    <mergeCell ref="B184:I184"/>
+    <mergeCell ref="B197:I197"/>
+    <mergeCell ref="B186:I186"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="B188:I188"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="B190:I190"/>
+    <mergeCell ref="B191:I191"/>
+    <mergeCell ref="B192:I192"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B194:I194"/>
+    <mergeCell ref="B195:I195"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="B200:I200"/>
+    <mergeCell ref="B201:I201"/>
+    <mergeCell ref="B202:I202"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="B208:I208"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B34:I34"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A8:I9"/>
     <mergeCell ref="A6:I6"/>
@@ -3994,72 +3951,6 @@
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B32:I32"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B212:I212"/>
-    <mergeCell ref="B201:I201"/>
-    <mergeCell ref="B202:I202"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="B210:I210"/>
-    <mergeCell ref="B211:I211"/>
-    <mergeCell ref="B200:I200"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="B190:I190"/>
-    <mergeCell ref="B191:I191"/>
-    <mergeCell ref="B192:I192"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B194:I194"/>
-    <mergeCell ref="B195:I195"/>
-    <mergeCell ref="B196:I196"/>
-    <mergeCell ref="B197:I197"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="B142:I144"/>
-    <mergeCell ref="B188:I188"/>
-    <mergeCell ref="B175:I175"/>
-    <mergeCell ref="B176:I176"/>
-    <mergeCell ref="B177:I177"/>
-    <mergeCell ref="B178:I178"/>
-    <mergeCell ref="B184:I184"/>
-    <mergeCell ref="B179:I179"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B183:I183"/>
-    <mergeCell ref="B185:I185"/>
-    <mergeCell ref="B186:I186"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="B170:I170"/>
-    <mergeCell ref="B171:I171"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B173:I173"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B213:I213"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="B126:I129"/>
-    <mergeCell ref="B114:I114"/>
-    <mergeCell ref="B133:I134"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:E138"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -4081,7 +3972,7 @@
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="B94:B98" xr:uid="{92AF6CB7-4A80-4E2F-8377-0310E8DEBE08}"/>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="C83:I83 B77:B83 J77:XFD83 A83 B69:B75 B53:B67" xr:uid="{227805A3-D203-44AE-9483-BFAA5260215C}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UNLISTED ITEM" error="Please input customised items manually" sqref="C83:I83 B77:B83 J77:XFD83 B53:B67 B69:B75" xr:uid="{227805A3-D203-44AE-9483-BFAA5260215C}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -4104,8 +3995,8 @@
     <brk id="43" max="8" man="1"/>
     <brk id="83" max="8" man="1"/>
     <brk id="124" max="8" man="1"/>
-    <brk id="168" max="8" man="1"/>
-    <brk id="191" max="8" man="1"/>
+    <brk id="165" max="8" man="1"/>
+    <brk id="188" max="8" man="1"/>
   </rowBreaks>
   <drawing r:id="rId4"/>
   <legacyDrawingHF r:id="rId5"/>

--- a/app/resource/xlsx/fee_proposal_template_1.xlsx
+++ b/app/resource/xlsx/fee_proposal_template_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BD0690-9229-49E4-9324-287B5B298D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC57273-450A-4877-A1FF-795EB991985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Receive base building drawings detailing information of service provision.</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,7 +769,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -774,29 +776,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -812,74 +801,89 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1325,13 +1329,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A153" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138:XFD138"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A131" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136:G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="42" customWidth="1"/>
     <col min="2" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
@@ -1342,14 +1346,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>139</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15"/>
@@ -1357,10 +1361,10 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1385,7 +1389,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="43"/>
+      <c r="F4" s="37"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="L4" s="14"/>
@@ -1395,7 +1399,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="43"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1410,15 +1414,15 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1470,14 +1474,14 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,14 +1496,14 @@
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
@@ -1511,14 +1515,14 @@
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
@@ -1530,14 +1534,14 @@
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
@@ -1549,14 +1553,14 @@
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1575,62 +1579,62 @@
       <c r="C16" s="4"/>
       <c r="E16" s="8"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1651,7 +1655,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="2" t="s">
         <v>104</v>
       </c>
@@ -1663,19 +1667,19 @@
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1683,39 +1687,39 @@
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
@@ -1726,58 +1730,58 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="2" t="s">
         <v>104</v>
       </c>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
@@ -1803,52 +1807,52 @@
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1865,7 +1869,7 @@
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="42" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1881,7 +1885,7 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="13"/>
@@ -1894,37 +1898,37 @@
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="42" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="33"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -1934,7 +1938,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
@@ -1947,7 +1951,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -1962,7 +1966,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
@@ -1978,7 +1982,7 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
@@ -1988,19 +1992,19 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="33"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
@@ -2008,7 +2012,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="44"/>
+      <c r="I52" s="38"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
@@ -2130,7 +2134,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="44"/>
+      <c r="I67" s="38"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21"/>
@@ -2155,22 +2159,22 @@
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21"/>
       <c r="C71" s="3"/>
-      <c r="I71" s="44"/>
+      <c r="I71" s="38"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21"/>
       <c r="C72" s="3"/>
-      <c r="I72" s="44"/>
+      <c r="I72" s="38"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21"/>
       <c r="C73" s="3"/>
-      <c r="I73" s="44"/>
+      <c r="I73" s="38"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="C74" s="3"/>
-      <c r="I74" s="44"/>
+      <c r="I74" s="38"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
@@ -2260,10 +2264,10 @@
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="31" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="16"/>
@@ -2271,13 +2275,13 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
-      <c r="I84" s="33"/>
+      <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="31" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="16"/>
@@ -2285,10 +2289,10 @@
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
-      <c r="I85" s="33"/>
+      <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="51" t="s">
         <v>128</v>
       </c>
@@ -2301,7 +2305,7 @@
       <c r="I86" s="51"/>
     </row>
     <row r="87" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
       <c r="D87" s="51"/>
@@ -2312,7 +2316,7 @@
       <c r="I87" s="51"/>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
       <c r="D88" s="51"/>
@@ -2323,7 +2327,7 @@
       <c r="I88" s="51"/>
     </row>
     <row r="89" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
       <c r="D89" s="51"/>
@@ -2334,20 +2338,20 @@
       <c r="I89" s="51"/>
     </row>
     <row r="90" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="31"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
-      <c r="I90" s="33"/>
+      <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="45">
+      <c r="A91" s="30">
         <v>3.2</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="31" t="s">
         <v>125</v>
       </c>
       <c r="D91" s="16"/>
@@ -2355,10 +2359,10 @@
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
-      <c r="I91" s="33"/>
+      <c r="I91" s="30"/>
     </row>
     <row r="92" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="51" t="s">
         <v>120</v>
       </c>
@@ -2371,7 +2375,7 @@
       <c r="I92" s="51"/>
     </row>
     <row r="93" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
       <c r="D93" s="51"/>
@@ -2382,7 +2386,7 @@
       <c r="I93" s="51"/>
     </row>
     <row r="94" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -2393,10 +2397,10 @@
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
-      <c r="I94" s="33"/>
+      <c r="I94" s="30"/>
     </row>
     <row r="95" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -2407,10 +2411,10 @@
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
-      <c r="I95" s="33"/>
+      <c r="I95" s="30"/>
     </row>
     <row r="96" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -2421,43 +2425,43 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
-      <c r="I96" s="33"/>
+      <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="7"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
-      <c r="I97" s="33"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="7"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
-      <c r="I98" s="33"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
-      <c r="B99" s="34"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="31"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
-      <c r="I99" s="33"/>
+      <c r="I99" s="30"/>
     </row>
     <row r="100" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="45">
+      <c r="A100" s="30">
         <v>3.3</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="31" t="s">
         <v>126</v>
       </c>
       <c r="D100" s="16"/>
@@ -2465,24 +2469,24 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
-      <c r="I100" s="33"/>
+      <c r="I100" s="30"/>
     </row>
     <row r="101" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="45"/>
-      <c r="B101" s="53" t="s">
+      <c r="A101" s="30"/>
+      <c r="B101" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="53"/>
-      <c r="I101" s="53"/>
-      <c r="Q101" s="34"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="Q101" s="31"/>
     </row>
     <row r="102" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="str">
+      <c r="A102" s="38" t="str">
         <f t="shared" ref="A102:A111" si="0">IF(B102&lt;&gt;"","•","")</f>
         <v/>
       </c>
@@ -2497,7 +2501,7 @@
       <c r="Q102" s="10"/>
     </row>
     <row r="103" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="str">
+      <c r="A103" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2512,7 +2516,7 @@
       <c r="Q103" s="10"/>
     </row>
     <row r="104" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="str">
+      <c r="A104" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2528,7 +2532,7 @@
       <c r="R104" s="7"/>
     </row>
     <row r="105" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="str">
+      <c r="A105" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2543,7 +2547,7 @@
       <c r="Q105" s="10"/>
     </row>
     <row r="106" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="str">
+      <c r="A106" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2558,7 +2562,7 @@
       <c r="Q106" s="10"/>
     </row>
     <row r="107" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="str">
+      <c r="A107" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2574,7 +2578,7 @@
       <c r="R107" s="7"/>
     </row>
     <row r="108" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="str">
+      <c r="A108" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2589,7 +2593,7 @@
       <c r="Q108" s="10"/>
     </row>
     <row r="109" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="str">
+      <c r="A109" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2600,7 +2604,7 @@
       <c r="Q109" s="10"/>
     </row>
     <row r="110" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="str">
+      <c r="A110" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2615,7 +2619,7 @@
       <c r="Q110" s="10"/>
     </row>
     <row r="111" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="str">
+      <c r="A111" s="38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2630,7 +2634,7 @@
       <c r="Q111" s="10"/>
     </row>
     <row r="112" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="46"/>
+      <c r="A112" s="45"/>
       <c r="M112" s="5" t="str">
         <f t="array" ref="M112">IFERROR(INDEX(#REF!,SMALL(IF(#REF!=#REF!,ROW(#REF!)-ROW(#REF!)+1),ROWS(#REF!))),"")</f>
         <v/>
@@ -2640,10 +2644,10 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="45">
+      <c r="A113" s="30">
         <v>3.4</v>
       </c>
-      <c r="B113" s="34" t="s">
+      <c r="B113" s="31" t="s">
         <v>115</v>
       </c>
       <c r="M113" s="5" t="str">
@@ -2656,17 +2660,17 @@
       <c r="Q113" s="5"/>
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="45"/>
-      <c r="B114" s="50" t="s">
+      <c r="A114" s="30"/>
+      <c r="B114" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50"/>
-      <c r="I114" s="50"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="52"/>
       <c r="M114" s="7"/>
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
@@ -2674,11 +2678,11 @@
       <c r="Q114" s="5"/>
     </row>
     <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="45"/>
+      <c r="A115" s="30"/>
       <c r="B115" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="38" t="s">
+      <c r="E115" s="33" t="s">
         <v>116</v>
       </c>
       <c r="M115" s="12"/>
@@ -2688,7 +2692,7 @@
       <c r="Q115" s="5"/>
     </row>
     <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
+      <c r="A116" s="38"/>
       <c r="B116" t="s">
         <v>12</v>
       </c>
@@ -2700,7 +2704,7 @@
       <c r="Q116" s="5"/>
     </row>
     <row r="117" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="38"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="16"/>
@@ -2716,10 +2720,10 @@
       <c r="Q117" s="5"/>
     </row>
     <row r="118" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
+      <c r="A118" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="16"/>
@@ -2727,58 +2731,58 @@
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
-      <c r="I118" s="33"/>
+      <c r="I118" s="30"/>
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118" s="11"/>
       <c r="P118"/>
     </row>
     <row r="119" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
-      <c r="B119" s="53" t="s">
+      <c r="A119" s="45"/>
+      <c r="B119" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="53"/>
-      <c r="H119" s="53"/>
-      <c r="I119" s="53"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+      <c r="G119" s="55"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="55"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
     <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="28" t="s">
+      <c r="A120" s="38"/>
+      <c r="B120" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C120" s="28"/>
-      <c r="D120" s="60" t="s">
+      <c r="C120" s="27"/>
+      <c r="D120" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="60"/>
-      <c r="F120" s="60" t="s">
+      <c r="E120" s="53"/>
+      <c r="F120" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="60"/>
+      <c r="G120" s="53"/>
       <c r="H120" s="9"/>
       <c r="Q120" s="5"/>
     </row>
     <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="28" t="s">
+      <c r="A121" s="38"/>
+      <c r="B121" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C121" s="28"/>
-      <c r="D121" s="60" t="s">
+      <c r="C121" s="27"/>
+      <c r="D121" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E121" s="60"/>
-      <c r="F121" s="61">
+      <c r="E121" s="53"/>
+      <c r="F121" s="54">
         <v>10000000</v>
       </c>
-      <c r="G121" s="61"/>
+      <c r="G121" s="54"/>
       <c r="H121" s="23"/>
       <c r="I121" s="7"/>
       <c r="M121" s="5"/>
@@ -2788,24 +2792,24 @@
       <c r="Q121" s="5"/>
     </row>
     <row r="122" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="28" t="s">
+      <c r="A122" s="38"/>
+      <c r="B122" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="60" t="s">
+      <c r="C122" s="27"/>
+      <c r="D122" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="60"/>
-      <c r="F122" s="61">
+      <c r="E122" s="53"/>
+      <c r="F122" s="54">
         <v>20000000</v>
       </c>
-      <c r="G122" s="61"/>
+      <c r="G122" s="54"/>
       <c r="H122" s="23"/>
       <c r="M122" s="9"/>
     </row>
     <row r="123" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
+      <c r="A123" s="38"/>
       <c r="B123" s="12" t="s">
         <v>117</v>
       </c>
@@ -2818,7 +2822,7 @@
       <c r="M123" s="23"/>
     </row>
     <row r="124" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+      <c r="A124" s="38"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
@@ -2830,18 +2834,18 @@
       <c r="M124" s="23"/>
     </row>
     <row r="125" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="33" t="s">
+      <c r="A125" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B125" s="34" t="s">
+      <c r="B125" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="36"/>
-      <c r="I125" s="33"/>
+      <c r="C125" s="32"/>
+      <c r="I125" s="30"/>
       <c r="M125" s="22"/>
     </row>
     <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
+      <c r="A126" s="38"/>
       <c r="B126" s="51" t="s">
         <v>106</v>
       </c>
@@ -2855,7 +2859,7 @@
       <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+      <c r="A127" s="38"/>
       <c r="B127" s="51"/>
       <c r="C127" s="51"/>
       <c r="D127" s="51"/>
@@ -2866,7 +2870,7 @@
       <c r="I127" s="51"/>
     </row>
     <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
+      <c r="A128" s="38"/>
       <c r="B128" s="51"/>
       <c r="C128" s="51"/>
       <c r="D128" s="51"/>
@@ -2877,7 +2881,7 @@
       <c r="I128" s="51"/>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
+      <c r="A129" s="38"/>
       <c r="B129" s="51"/>
       <c r="C129" s="51"/>
       <c r="D129" s="51"/>
@@ -2889,7 +2893,7 @@
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
+      <c r="A130" s="38"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -2900,10 +2904,10 @@
       <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="16"/>
@@ -2911,7 +2915,7 @@
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
       <c r="H131" s="16"/>
-      <c r="I131" s="33"/>
+      <c r="I131" s="30"/>
     </row>
     <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
@@ -2928,7 +2932,7 @@
       <c r="I132" s="21"/>
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
+      <c r="A133" s="38"/>
       <c r="B133" s="51" t="s">
         <v>15</v>
       </c>
@@ -2941,7 +2945,7 @@
       <c r="I133" s="51"/>
     </row>
     <row r="134" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
+      <c r="A134" s="38"/>
       <c r="B134" s="51"/>
       <c r="C134" s="51"/>
       <c r="D134" s="51"/>
@@ -2952,40 +2956,40 @@
       <c r="I134" s="51"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="62" t="s">
+      <c r="A135" s="38"/>
+      <c r="B135" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63"/>
-      <c r="E135" s="64"/>
-      <c r="F135" s="40" t="s">
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="58"/>
+      <c r="F135" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G135" s="40" t="s">
+      <c r="G135" s="34" t="s">
         <v>96</v>
       </c>
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="60"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
       <c r="H136" s="23"/>
       <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="48"/>
-      <c r="C137" s="48"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="49"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="40"/>
+      <c r="G137" s="40"/>
       <c r="H137" s="23"/>
       <c r="I137" s="7"/>
     </row>
@@ -3004,7 +3008,7 @@
       <c r="H138" s="23"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="38"/>
       <c r="B139" s="51" t="s">
         <v>48</v>
       </c>
@@ -3039,7 +3043,7 @@
       <c r="I141" s="51"/>
     </row>
     <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
+      <c r="A142" s="38"/>
       <c r="B142" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3059,7 @@
       <c r="H142" s="24"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="38"/>
       <c r="B143" t="s">
         <v>132</v>
       </c>
@@ -3071,7 +3075,7 @@
       <c r="H143" s="24"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
+      <c r="A144" s="38"/>
       <c r="B144" t="s">
         <v>133</v>
       </c>
@@ -3087,7 +3091,7 @@
       <c r="H144" s="24"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
+      <c r="A145" s="38"/>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
       <c r="H145" s="24"/>
@@ -3104,19 +3108,19 @@
       <c r="H146" s="24"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
+      <c r="A147" s="38"/>
       <c r="B147" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C147" s="42"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="42"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="41"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="35"/>
       <c r="H147" s="23"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="47"/>
+      <c r="A148" s="46"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -3127,10 +3131,10 @@
       <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3151,7 +3155,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
+      <c r="A152" s="38"/>
       <c r="B152" s="12" t="s">
         <v>45</v>
       </c>
@@ -3160,11 +3164,13 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="12"/>
+      <c r="A153" s="38"/>
+      <c r="B153" s="12" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
+      <c r="A154" s="38"/>
       <c r="B154" s="12" t="s">
         <v>46</v>
       </c>
@@ -3173,703 +3179,768 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
+      <c r="A155" s="38"/>
       <c r="B155" s="12"/>
       <c r="F155" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
+      <c r="A156" s="38"/>
       <c r="B156" s="12"/>
       <c r="F156" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
+      <c r="A157" s="38"/>
       <c r="B157" s="12"/>
       <c r="F157" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
+      <c r="A158" s="38"/>
       <c r="B158" s="12"/>
       <c r="F158" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
+      <c r="A159" s="38"/>
       <c r="B159" s="12"/>
       <c r="F159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
+      <c r="A160" s="38"/>
       <c r="B160" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
+      <c r="A161" s="38"/>
       <c r="B161" s="10"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
+      <c r="A162" s="38"/>
       <c r="B162" s="10"/>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
+      <c r="A163" s="38"/>
       <c r="B163" s="10"/>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
+      <c r="A164" s="38"/>
       <c r="B164" s="10"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
+      <c r="A165" s="38"/>
       <c r="B165" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F165" s="59">
+      <c r="F165" s="62">
         <f ca="1">TODAY()</f>
-        <v>45320</v>
-      </c>
-      <c r="G165" s="59"/>
+        <v>45357</v>
+      </c>
+      <c r="G165" s="62"/>
     </row>
     <row r="166" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="37" t="s">
+      <c r="A166" s="47" t="s">
         <v>50</v>
       </c>
       <c r="C166" s="6"/>
       <c r="I166" s="21"/>
     </row>
     <row r="167" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8">
+      <c r="A167" s="48">
         <v>1</v>
       </c>
-      <c r="B167" s="58" t="s">
+      <c r="B167" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C167" s="58"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="58"/>
-      <c r="F167" s="58"/>
-      <c r="G167" s="58"/>
-      <c r="H167" s="58"/>
-      <c r="I167" s="58"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="50"/>
     </row>
     <row r="168" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="8">
+      <c r="A168" s="48">
         <v>2</v>
       </c>
-      <c r="B168" s="58" t="s">
+      <c r="B168" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C168" s="58"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
-      <c r="I168" s="58"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="50"/>
     </row>
     <row r="169" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8">
+      <c r="A169" s="48">
         <v>3</v>
       </c>
-      <c r="B169" s="58" t="s">
+      <c r="B169" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="58"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="50"/>
+      <c r="I169" s="50"/>
     </row>
     <row r="170" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8">
+      <c r="A170" s="48">
         <v>4</v>
       </c>
-      <c r="B170" s="58" t="s">
+      <c r="B170" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C170" s="58"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="58"/>
-      <c r="F170" s="58"/>
-      <c r="G170" s="58"/>
-      <c r="H170" s="58"/>
-      <c r="I170" s="58"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="50"/>
+      <c r="I170" s="50"/>
     </row>
     <row r="171" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8">
+      <c r="A171" s="48">
         <v>5</v>
       </c>
-      <c r="B171" s="58" t="s">
+      <c r="B171" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="58"/>
-      <c r="H171" s="58"/>
-      <c r="I171" s="58"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="50"/>
     </row>
     <row r="172" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8"/>
-      <c r="B172" s="58" t="s">
+      <c r="A172" s="48"/>
+      <c r="B172" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="58"/>
-      <c r="G172" s="58"/>
-      <c r="H172" s="58"/>
-      <c r="I172" s="58"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
     </row>
     <row r="173" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8"/>
-      <c r="B173" s="58" t="s">
+      <c r="A173" s="48"/>
+      <c r="B173" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C173" s="58"/>
-      <c r="D173" s="58"/>
-      <c r="E173" s="58"/>
-      <c r="F173" s="58"/>
-      <c r="G173" s="58"/>
-      <c r="H173" s="58"/>
-      <c r="I173" s="58"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="50"/>
+      <c r="I173" s="50"/>
     </row>
     <row r="174" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8"/>
-      <c r="B174" s="58" t="s">
+      <c r="A174" s="48"/>
+      <c r="B174" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C174" s="58"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="58"/>
-      <c r="F174" s="58"/>
-      <c r="G174" s="58"/>
-      <c r="H174" s="58"/>
-      <c r="I174" s="58"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="50"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
     </row>
     <row r="175" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8">
+      <c r="A175" s="48">
         <v>6</v>
       </c>
-      <c r="B175" s="58" t="s">
+      <c r="B175" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C175" s="58"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="58"/>
-      <c r="G175" s="58"/>
-      <c r="H175" s="58"/>
-      <c r="I175" s="58"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="50"/>
     </row>
     <row r="176" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8"/>
-      <c r="B176" s="58" t="s">
+      <c r="A176" s="48"/>
+      <c r="B176" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C176" s="58"/>
-      <c r="D176" s="58"/>
-      <c r="E176" s="58"/>
-      <c r="F176" s="58"/>
-      <c r="G176" s="58"/>
-      <c r="H176" s="58"/>
-      <c r="I176" s="58"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="50"/>
+      <c r="G176" s="50"/>
+      <c r="H176" s="50"/>
+      <c r="I176" s="50"/>
     </row>
     <row r="177" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8"/>
-      <c r="B177" s="58" t="s">
+      <c r="A177" s="48"/>
+      <c r="B177" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C177" s="58"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="58"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="58"/>
-      <c r="I177" s="58"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="50"/>
+      <c r="G177" s="50"/>
+      <c r="H177" s="50"/>
+      <c r="I177" s="50"/>
     </row>
     <row r="178" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8">
+      <c r="A178" s="48">
         <v>7</v>
       </c>
-      <c r="B178" s="58" t="s">
+      <c r="B178" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C178" s="58"/>
-      <c r="D178" s="58"/>
-      <c r="E178" s="58"/>
-      <c r="F178" s="58"/>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="50"/>
+      <c r="G178" s="50"/>
+      <c r="H178" s="50"/>
+      <c r="I178" s="50"/>
     </row>
     <row r="179" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8">
+      <c r="A179" s="48">
         <v>8</v>
       </c>
-      <c r="B179" s="58" t="s">
+      <c r="B179" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C179" s="58"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="58"/>
-      <c r="F179" s="58"/>
-      <c r="G179" s="58"/>
-      <c r="H179" s="58"/>
-      <c r="I179" s="58"/>
+      <c r="C179" s="50"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="50"/>
+      <c r="F179" s="50"/>
+      <c r="G179" s="50"/>
+      <c r="H179" s="50"/>
+      <c r="I179" s="50"/>
     </row>
     <row r="180" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
-      <c r="B180" s="58" t="s">
+      <c r="A180" s="48"/>
+      <c r="B180" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C180" s="58"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="58"/>
-      <c r="F180" s="58"/>
-      <c r="G180" s="58"/>
-      <c r="H180" s="58"/>
-      <c r="I180" s="58"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
+      <c r="G180" s="50"/>
+      <c r="H180" s="50"/>
+      <c r="I180" s="50"/>
     </row>
     <row r="181" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
-      <c r="B181" s="58" t="s">
+      <c r="A181" s="48"/>
+      <c r="B181" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C181" s="58"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="58"/>
-      <c r="H181" s="58"/>
-      <c r="I181" s="58"/>
+      <c r="C181" s="50"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="50"/>
+      <c r="G181" s="50"/>
+      <c r="H181" s="50"/>
+      <c r="I181" s="50"/>
     </row>
     <row r="182" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-      <c r="B182" s="58" t="s">
+      <c r="A182" s="48"/>
+      <c r="B182" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C182" s="58"/>
-      <c r="D182" s="58"/>
-      <c r="E182" s="58"/>
-      <c r="F182" s="58"/>
-      <c r="G182" s="58"/>
-      <c r="H182" s="58"/>
-      <c r="I182" s="58"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="50"/>
+      <c r="H182" s="50"/>
+      <c r="I182" s="50"/>
     </row>
     <row r="183" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
-      <c r="B183" s="58" t="s">
+      <c r="A183" s="48"/>
+      <c r="B183" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C183" s="58"/>
-      <c r="D183" s="58"/>
-      <c r="E183" s="58"/>
-      <c r="F183" s="58"/>
-      <c r="G183" s="58"/>
-      <c r="H183" s="58"/>
-      <c r="I183" s="58"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="50"/>
+      <c r="E183" s="50"/>
+      <c r="F183" s="50"/>
+      <c r="G183" s="50"/>
+      <c r="H183" s="50"/>
+      <c r="I183" s="50"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
-      <c r="B184" s="58" t="s">
+      <c r="A184" s="48"/>
+      <c r="B184" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C184" s="58"/>
-      <c r="D184" s="58"/>
-      <c r="E184" s="58"/>
-      <c r="F184" s="58"/>
-      <c r="G184" s="58"/>
-      <c r="H184" s="58"/>
-      <c r="I184" s="58"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="8"/>
-      <c r="B185" s="58" t="s">
+      <c r="A185" s="48"/>
+      <c r="B185" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C185" s="58"/>
-      <c r="D185" s="58"/>
-      <c r="E185" s="58"/>
-      <c r="F185" s="58"/>
-      <c r="G185" s="58"/>
-      <c r="H185" s="58"/>
-      <c r="I185" s="58"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="50"/>
+      <c r="E185" s="50"/>
+      <c r="F185" s="50"/>
+      <c r="G185" s="50"/>
+      <c r="H185" s="50"/>
+      <c r="I185" s="50"/>
     </row>
     <row r="186" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="8">
+      <c r="A186" s="48">
         <v>9</v>
       </c>
-      <c r="B186" s="58" t="s">
+      <c r="B186" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C186" s="58"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="58"/>
-      <c r="H186" s="58"/>
-      <c r="I186" s="58"/>
+      <c r="C186" s="50"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="50"/>
+      <c r="I186" s="50"/>
     </row>
     <row r="187" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="8">
+      <c r="A187" s="48">
         <v>10</v>
       </c>
-      <c r="B187" s="58" t="s">
+      <c r="B187" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C187" s="58"/>
-      <c r="D187" s="58"/>
-      <c r="E187" s="58"/>
-      <c r="F187" s="58"/>
-      <c r="G187" s="58"/>
-      <c r="H187" s="58"/>
-      <c r="I187" s="58"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="50"/>
+      <c r="I187" s="50"/>
     </row>
     <row r="188" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
-      <c r="B188" s="58" t="s">
+      <c r="A188" s="48"/>
+      <c r="B188" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C188" s="58"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="58"/>
-      <c r="I188" s="58"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
     </row>
     <row r="189" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
-      <c r="B189" s="58" t="s">
+      <c r="A189" s="48"/>
+      <c r="B189" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C189" s="58"/>
-      <c r="D189" s="58"/>
-      <c r="E189" s="58"/>
-      <c r="F189" s="58"/>
-      <c r="G189" s="58"/>
-      <c r="H189" s="58"/>
-      <c r="I189" s="58"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
+      <c r="I189" s="50"/>
     </row>
     <row r="190" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="8"/>
-      <c r="B190" s="58" t="s">
+      <c r="A190" s="48"/>
+      <c r="B190" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="58"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="58"/>
-      <c r="I190" s="58"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="50"/>
+      <c r="I190" s="50"/>
     </row>
     <row r="191" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="8"/>
-      <c r="B191" s="58" t="s">
+      <c r="A191" s="48"/>
+      <c r="B191" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C191" s="58"/>
-      <c r="D191" s="58"/>
-      <c r="E191" s="58"/>
-      <c r="F191" s="58"/>
-      <c r="G191" s="58"/>
-      <c r="H191" s="58"/>
-      <c r="I191" s="58"/>
+      <c r="C191" s="50"/>
+      <c r="D191" s="50"/>
+      <c r="E191" s="50"/>
+      <c r="F191" s="50"/>
+      <c r="G191" s="50"/>
+      <c r="H191" s="50"/>
+      <c r="I191" s="50"/>
     </row>
     <row r="192" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="8">
+      <c r="A192" s="48">
         <v>11</v>
       </c>
-      <c r="B192" s="58" t="s">
+      <c r="B192" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C192" s="58"/>
-      <c r="D192" s="58"/>
-      <c r="E192" s="58"/>
-      <c r="F192" s="58"/>
-      <c r="G192" s="58"/>
-      <c r="H192" s="58"/>
-      <c r="I192" s="58"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
+      <c r="G192" s="50"/>
+      <c r="H192" s="50"/>
+      <c r="I192" s="50"/>
     </row>
     <row r="193" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="8"/>
-      <c r="B193" s="58" t="s">
+      <c r="A193" s="48"/>
+      <c r="B193" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C193" s="58"/>
-      <c r="D193" s="58"/>
-      <c r="E193" s="58"/>
-      <c r="F193" s="58"/>
-      <c r="G193" s="58"/>
-      <c r="H193" s="58"/>
-      <c r="I193" s="58"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="50"/>
+      <c r="G193" s="50"/>
+      <c r="H193" s="50"/>
+      <c r="I193" s="50"/>
     </row>
     <row r="194" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
-      <c r="B194" s="58" t="s">
+      <c r="A194" s="48"/>
+      <c r="B194" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C194" s="58"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="58"/>
-      <c r="F194" s="58"/>
-      <c r="G194" s="58"/>
-      <c r="H194" s="58"/>
-      <c r="I194" s="58"/>
+      <c r="C194" s="50"/>
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
+      <c r="I194" s="50"/>
     </row>
     <row r="195" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="8">
+      <c r="A195" s="48">
         <v>12</v>
       </c>
-      <c r="B195" s="58" t="s">
+      <c r="B195" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C195" s="58"/>
-      <c r="D195" s="58"/>
-      <c r="E195" s="58"/>
-      <c r="F195" s="58"/>
-      <c r="G195" s="58"/>
-      <c r="H195" s="58"/>
-      <c r="I195" s="58"/>
+      <c r="C195" s="50"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="50"/>
+      <c r="G195" s="50"/>
+      <c r="H195" s="50"/>
+      <c r="I195" s="50"/>
     </row>
     <row r="196" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="8"/>
-      <c r="B196" s="58" t="s">
+      <c r="A196" s="48"/>
+      <c r="B196" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C196" s="58"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="58"/>
-      <c r="F196" s="58"/>
-      <c r="G196" s="58"/>
-      <c r="H196" s="58"/>
-      <c r="I196" s="58"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="50"/>
+      <c r="G196" s="50"/>
+      <c r="H196" s="50"/>
+      <c r="I196" s="50"/>
     </row>
     <row r="197" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="8"/>
-      <c r="B197" s="58" t="s">
+      <c r="A197" s="48"/>
+      <c r="B197" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C197" s="58"/>
-      <c r="D197" s="58"/>
-      <c r="E197" s="58"/>
-      <c r="F197" s="58"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="58"/>
-      <c r="I197" s="58"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="50"/>
+      <c r="G197" s="50"/>
+      <c r="H197" s="50"/>
+      <c r="I197" s="50"/>
     </row>
     <row r="198" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="8"/>
-      <c r="B198" s="58" t="s">
+      <c r="A198" s="48"/>
+      <c r="B198" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C198" s="58"/>
-      <c r="D198" s="58"/>
-      <c r="E198" s="58"/>
-      <c r="F198" s="58"/>
-      <c r="G198" s="58"/>
-      <c r="H198" s="58"/>
-      <c r="I198" s="58"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="50"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="50"/>
+      <c r="G198" s="50"/>
+      <c r="H198" s="50"/>
+      <c r="I198" s="50"/>
     </row>
     <row r="199" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="8"/>
-      <c r="B199" s="58" t="s">
+      <c r="A199" s="48"/>
+      <c r="B199" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C199" s="58"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="58"/>
-      <c r="G199" s="58"/>
-      <c r="H199" s="58"/>
-      <c r="I199" s="58"/>
+      <c r="C199" s="50"/>
+      <c r="D199" s="50"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="50"/>
+      <c r="G199" s="50"/>
+      <c r="H199" s="50"/>
+      <c r="I199" s="50"/>
     </row>
     <row r="200" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8">
+      <c r="A200" s="48">
         <v>13</v>
       </c>
-      <c r="B200" s="58" t="s">
+      <c r="B200" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C200" s="58"/>
-      <c r="D200" s="58"/>
-      <c r="E200" s="58"/>
-      <c r="F200" s="58"/>
-      <c r="G200" s="58"/>
-      <c r="H200" s="58"/>
-      <c r="I200" s="58"/>
+      <c r="C200" s="50"/>
+      <c r="D200" s="50"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="50"/>
+      <c r="G200" s="50"/>
+      <c r="H200" s="50"/>
+      <c r="I200" s="50"/>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8"/>
-      <c r="B201" s="58" t="s">
+      <c r="A201" s="48"/>
+      <c r="B201" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C201" s="58"/>
-      <c r="D201" s="58"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="58"/>
-      <c r="G201" s="58"/>
-      <c r="H201" s="58"/>
-      <c r="I201" s="58"/>
+      <c r="C201" s="50"/>
+      <c r="D201" s="50"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="50"/>
+      <c r="I201" s="50"/>
     </row>
     <row r="202" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="8"/>
-      <c r="B202" s="58" t="s">
+      <c r="A202" s="48"/>
+      <c r="B202" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C202" s="58"/>
-      <c r="D202" s="58"/>
-      <c r="E202" s="58"/>
-      <c r="F202" s="58"/>
-      <c r="G202" s="58"/>
-      <c r="H202" s="58"/>
-      <c r="I202" s="58"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="50"/>
     </row>
     <row r="203" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="8">
+      <c r="A203" s="48">
         <v>14</v>
       </c>
-      <c r="B203" s="58" t="s">
+      <c r="B203" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C203" s="58"/>
-      <c r="D203" s="58"/>
-      <c r="E203" s="58"/>
-      <c r="F203" s="58"/>
-      <c r="G203" s="58"/>
-      <c r="H203" s="58"/>
-      <c r="I203" s="58"/>
+      <c r="C203" s="50"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="50"/>
+      <c r="G203" s="50"/>
+      <c r="H203" s="50"/>
+      <c r="I203" s="50"/>
     </row>
     <row r="204" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
-      <c r="B204" s="58" t="s">
+      <c r="A204" s="48"/>
+      <c r="B204" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C204" s="58"/>
-      <c r="D204" s="58"/>
-      <c r="E204" s="58"/>
-      <c r="F204" s="58"/>
-      <c r="G204" s="58"/>
-      <c r="H204" s="58"/>
-      <c r="I204" s="58"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="50"/>
+      <c r="G204" s="50"/>
+      <c r="H204" s="50"/>
+      <c r="I204" s="50"/>
     </row>
     <row r="205" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8"/>
-      <c r="B205" s="58" t="s">
+      <c r="A205" s="48"/>
+      <c r="B205" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C205" s="58"/>
-      <c r="D205" s="58"/>
-      <c r="E205" s="58"/>
-      <c r="F205" s="58"/>
-      <c r="G205" s="58"/>
-      <c r="H205" s="58"/>
-      <c r="I205" s="58"/>
+      <c r="C205" s="50"/>
+      <c r="D205" s="50"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="50"/>
+      <c r="G205" s="50"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="50"/>
     </row>
     <row r="206" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8"/>
-      <c r="B206" s="58" t="s">
+      <c r="A206" s="48"/>
+      <c r="B206" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C206" s="58"/>
-      <c r="D206" s="58"/>
-      <c r="E206" s="58"/>
-      <c r="F206" s="58"/>
-      <c r="G206" s="58"/>
-      <c r="H206" s="58"/>
-      <c r="I206" s="58"/>
+      <c r="C206" s="50"/>
+      <c r="D206" s="50"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="50"/>
+      <c r="G206" s="50"/>
+      <c r="H206" s="50"/>
+      <c r="I206" s="50"/>
     </row>
     <row r="207" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="8"/>
-      <c r="B207" s="58" t="s">
+      <c r="A207" s="48"/>
+      <c r="B207" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C207" s="58"/>
-      <c r="D207" s="58"/>
-      <c r="E207" s="58"/>
-      <c r="F207" s="58"/>
-      <c r="G207" s="58"/>
-      <c r="H207" s="58"/>
-      <c r="I207" s="58"/>
+      <c r="C207" s="50"/>
+      <c r="D207" s="50"/>
+      <c r="E207" s="50"/>
+      <c r="F207" s="50"/>
+      <c r="G207" s="50"/>
+      <c r="H207" s="50"/>
+      <c r="I207" s="50"/>
     </row>
     <row r="208" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="8">
+      <c r="A208" s="48">
         <v>15</v>
       </c>
-      <c r="B208" s="58" t="s">
+      <c r="B208" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C208" s="58"/>
-      <c r="D208" s="58"/>
-      <c r="E208" s="58"/>
-      <c r="F208" s="58"/>
-      <c r="G208" s="58"/>
-      <c r="H208" s="58"/>
-      <c r="I208" s="58"/>
+      <c r="C208" s="50"/>
+      <c r="D208" s="50"/>
+      <c r="E208" s="50"/>
+      <c r="F208" s="50"/>
+      <c r="G208" s="50"/>
+      <c r="H208" s="50"/>
+      <c r="I208" s="50"/>
     </row>
     <row r="209" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="8">
+      <c r="A209" s="48">
         <v>16</v>
       </c>
-      <c r="B209" s="58" t="s">
+      <c r="B209" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C209" s="58"/>
-      <c r="D209" s="58"/>
-      <c r="E209" s="58"/>
-      <c r="F209" s="58"/>
-      <c r="G209" s="58"/>
-      <c r="H209" s="58"/>
-      <c r="I209" s="58"/>
+      <c r="C209" s="50"/>
+      <c r="D209" s="50"/>
+      <c r="E209" s="50"/>
+      <c r="F209" s="50"/>
+      <c r="G209" s="50"/>
+      <c r="H209" s="50"/>
+      <c r="I209" s="50"/>
     </row>
     <row r="210" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="8">
+      <c r="A210" s="48">
         <v>17</v>
       </c>
-      <c r="B210" s="58" t="s">
+      <c r="B210" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C210" s="58"/>
-      <c r="D210" s="58"/>
-      <c r="E210" s="58"/>
-      <c r="F210" s="58"/>
-      <c r="G210" s="58"/>
-      <c r="H210" s="58"/>
-      <c r="I210" s="58"/>
+      <c r="C210" s="50"/>
+      <c r="D210" s="50"/>
+      <c r="E210" s="50"/>
+      <c r="F210" s="50"/>
+      <c r="G210" s="50"/>
+      <c r="H210" s="50"/>
+      <c r="I210" s="50"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="27"/>
+      <c r="A211" s="49"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="27"/>
+      <c r="A212" s="49"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="27"/>
+      <c r="A213" s="49"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="27"/>
+      <c r="A214" s="49"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="27"/>
+      <c r="A215" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B101:I101"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B92:I93"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B86:I89"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="Q9:X9"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A11:I14"/>
+    <mergeCell ref="M11:T14"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B209:I209"/>
+    <mergeCell ref="B198:I198"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="B200:I200"/>
+    <mergeCell ref="B201:I201"/>
+    <mergeCell ref="B202:I202"/>
+    <mergeCell ref="B203:I203"/>
+    <mergeCell ref="B204:I204"/>
+    <mergeCell ref="B205:I205"/>
+    <mergeCell ref="B206:I206"/>
+    <mergeCell ref="B207:I207"/>
+    <mergeCell ref="B208:I208"/>
+    <mergeCell ref="B183:I183"/>
+    <mergeCell ref="B184:I184"/>
+    <mergeCell ref="B197:I197"/>
+    <mergeCell ref="B186:I186"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="B188:I188"/>
+    <mergeCell ref="B189:I189"/>
+    <mergeCell ref="B190:I190"/>
+    <mergeCell ref="B191:I191"/>
+    <mergeCell ref="B192:I192"/>
+    <mergeCell ref="B193:I193"/>
+    <mergeCell ref="B194:I194"/>
+    <mergeCell ref="B195:I195"/>
+    <mergeCell ref="B196:I196"/>
+    <mergeCell ref="B170:I170"/>
+    <mergeCell ref="B171:I171"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="B139:I141"/>
+    <mergeCell ref="B185:I185"/>
+    <mergeCell ref="B172:I172"/>
+    <mergeCell ref="B173:I173"/>
+    <mergeCell ref="B174:I174"/>
+    <mergeCell ref="B175:I175"/>
+    <mergeCell ref="B181:I181"/>
+    <mergeCell ref="B176:I176"/>
+    <mergeCell ref="B177:I177"/>
+    <mergeCell ref="B178:I178"/>
+    <mergeCell ref="B179:I179"/>
+    <mergeCell ref="B180:I180"/>
+    <mergeCell ref="B182:I182"/>
     <mergeCell ref="B210:I210"/>
     <mergeCell ref="B126:I129"/>
     <mergeCell ref="B114:I114"/>
@@ -3886,71 +3957,6 @@
     <mergeCell ref="B167:I167"/>
     <mergeCell ref="B168:I168"/>
     <mergeCell ref="B169:I169"/>
-    <mergeCell ref="B170:I170"/>
-    <mergeCell ref="B171:I171"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="B139:I141"/>
-    <mergeCell ref="B185:I185"/>
-    <mergeCell ref="B172:I172"/>
-    <mergeCell ref="B173:I173"/>
-    <mergeCell ref="B174:I174"/>
-    <mergeCell ref="B175:I175"/>
-    <mergeCell ref="B181:I181"/>
-    <mergeCell ref="B176:I176"/>
-    <mergeCell ref="B177:I177"/>
-    <mergeCell ref="B178:I178"/>
-    <mergeCell ref="B179:I179"/>
-    <mergeCell ref="B180:I180"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B183:I183"/>
-    <mergeCell ref="B184:I184"/>
-    <mergeCell ref="B197:I197"/>
-    <mergeCell ref="B186:I186"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="B188:I188"/>
-    <mergeCell ref="B189:I189"/>
-    <mergeCell ref="B190:I190"/>
-    <mergeCell ref="B191:I191"/>
-    <mergeCell ref="B192:I192"/>
-    <mergeCell ref="B193:I193"/>
-    <mergeCell ref="B194:I194"/>
-    <mergeCell ref="B195:I195"/>
-    <mergeCell ref="B196:I196"/>
-    <mergeCell ref="B209:I209"/>
-    <mergeCell ref="B198:I198"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="B200:I200"/>
-    <mergeCell ref="B201:I201"/>
-    <mergeCell ref="B202:I202"/>
-    <mergeCell ref="B203:I203"/>
-    <mergeCell ref="B204:I204"/>
-    <mergeCell ref="B205:I205"/>
-    <mergeCell ref="B206:I206"/>
-    <mergeCell ref="B207:I207"/>
-    <mergeCell ref="B208:I208"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="Q9:X9"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A11:I14"/>
-    <mergeCell ref="M11:T14"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A8:I9"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B101:I101"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B92:I93"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B86:I89"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
